--- a/gd/数值规划/时间模型与产出控制.xlsx
+++ b/gd/数值规划/时间模型与产出控制.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="副本时间模板" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,16 @@
     <sheet name="投放控制方法" sheetId="5" r:id="rId3"/>
     <sheet name="Q&amp;A" sheetId="6" r:id="rId4"/>
     <sheet name="人物经验、等级段效率" sheetId="7" r:id="rId5"/>
-    <sheet name="玩家历程（未完成）" sheetId="3" r:id="rId6"/>
-    <sheet name="参考" sheetId="2" r:id="rId7"/>
+    <sheet name="PL值计算" sheetId="8" r:id="rId6"/>
+    <sheet name="玩家历程（未完成）" sheetId="3" r:id="rId7"/>
+    <sheet name="参考" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="614">
   <si>
     <t>新版对局时间模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -612,10 +613,6 @@
   </si>
   <si>
     <t>月效率限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通玩家极限系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2334,6 +2331,101 @@
   </si>
   <si>
     <t>时间效率加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通玩家极限系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pL总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日单次投放量</t>
+  </si>
+  <si>
+    <t>每日单次投放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础需求疲劳值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单本疲劳值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日单次投放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家疲劳值总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础调整系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通玩家调整系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000块调整系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000块调整系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家总产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家拥有PL值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家可购买疲劳值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正可购买疲劳值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个疲劳值药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可购买疲劳值药个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日最小疲劳值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2581,7 +2673,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3015,6 +3107,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3024,7 +3119,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3201,11 +3296,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="343691504"/>
-        <c:axId val="343692064"/>
+        <c:axId val="700776240"/>
+        <c:axId val="700776800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343691504"/>
+        <c:axId val="700776240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3248,7 +3343,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343692064"/>
+        <c:crossAx val="700776800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3256,7 +3351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343692064"/>
+        <c:axId val="700776800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3307,7 +3402,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343691504"/>
+        <c:crossAx val="700776240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3672,11 +3767,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="525648032"/>
-        <c:axId val="525648592"/>
+        <c:axId val="727508672"/>
+        <c:axId val="727509232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="525648032"/>
+        <c:axId val="727508672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3685,7 +3780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525648592"/>
+        <c:crossAx val="727509232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3693,7 +3788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525648592"/>
+        <c:axId val="727509232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3704,7 +3799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525648032"/>
+        <c:crossAx val="727508672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3741,7 +3836,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3772,7 +3866,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -3888,11 +3981,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="68221600"/>
-        <c:axId val="68222160"/>
+        <c:axId val="727511472"/>
+        <c:axId val="727512032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68221600"/>
+        <c:axId val="727511472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3902,7 +3995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68222160"/>
+        <c:crossAx val="727512032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3910,7 +4003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68222160"/>
+        <c:axId val="727512032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="600"/>
@@ -3922,14 +4015,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68221600"/>
+        <c:crossAx val="727511472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4137,11 +4229,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="344047168"/>
-        <c:axId val="344047728"/>
+        <c:axId val="343959600"/>
+        <c:axId val="343960160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="344047168"/>
+        <c:axId val="343959600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4150,7 +4242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344047728"/>
+        <c:crossAx val="343960160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4158,7 +4250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344047728"/>
+        <c:axId val="343960160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4169,7 +4261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344047168"/>
+        <c:crossAx val="343959600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4263,11 +4355,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="344049968"/>
-        <c:axId val="344050528"/>
+        <c:axId val="860413872"/>
+        <c:axId val="860414432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="344049968"/>
+        <c:axId val="860413872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4276,7 +4368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344050528"/>
+        <c:crossAx val="860414432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4284,7 +4376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344050528"/>
+        <c:axId val="860414432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4295,7 +4387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344049968"/>
+        <c:crossAx val="860413872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4392,11 +4484,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="769952128"/>
-        <c:axId val="769952688"/>
+        <c:axId val="860416672"/>
+        <c:axId val="860417232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="769952128"/>
+        <c:axId val="860416672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4405,7 +4497,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="769952688"/>
+        <c:crossAx val="860417232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4413,7 +4505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="769952688"/>
+        <c:axId val="860417232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4424,7 +4516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="769952128"/>
+        <c:crossAx val="860416672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4521,11 +4613,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="341023568"/>
-        <c:axId val="341024128"/>
+        <c:axId val="993127712"/>
+        <c:axId val="993128272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="341023568"/>
+        <c:axId val="993127712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4534,7 +4626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="341024128"/>
+        <c:crossAx val="993128272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4542,7 +4634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="341024128"/>
+        <c:axId val="993128272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4553,13 +4645,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="341023568"/>
+        <c:crossAx val="993127712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4650,11 +4743,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="341026368"/>
-        <c:axId val="390372656"/>
+        <c:axId val="970798544"/>
+        <c:axId val="970799104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="341026368"/>
+        <c:axId val="970798544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4663,7 +4756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390372656"/>
+        <c:crossAx val="970799104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4671,7 +4764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="390372656"/>
+        <c:axId val="970799104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4682,13 +4775,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="341026368"/>
+        <c:crossAx val="970798544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4779,11 +4873,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="390374896"/>
-        <c:axId val="390375456"/>
+        <c:axId val="970801344"/>
+        <c:axId val="437873696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="390374896"/>
+        <c:axId val="970801344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4792,7 +4886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390375456"/>
+        <c:crossAx val="437873696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4800,7 +4894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="390375456"/>
+        <c:axId val="437873696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4811,13 +4905,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390374896"/>
+        <c:crossAx val="970801344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5075,11 +5170,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="821933200"/>
-        <c:axId val="821933760"/>
+        <c:axId val="437875936"/>
+        <c:axId val="437876496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="821933200"/>
+        <c:axId val="437875936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5121,7 +5216,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821933760"/>
+        <c:crossAx val="437876496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5129,7 +5224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="821933760"/>
+        <c:axId val="437876496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,7 +5275,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821933200"/>
+        <c:crossAx val="437875936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5333,11 +5428,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="525645232"/>
-        <c:axId val="525645792"/>
+        <c:axId val="810180048"/>
+        <c:axId val="810180608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="525645232"/>
+        <c:axId val="810180048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5379,7 +5474,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525645792"/>
+        <c:crossAx val="810180608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5387,7 +5482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525645792"/>
+        <c:axId val="810180608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5438,7 +5533,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525645232"/>
+        <c:crossAx val="810180048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7214,8 +7309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N177"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:D47"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7257,7 +7352,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C7" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D7" s="3">
         <v>150</v>
@@ -7267,19 +7362,19 @@
         <v>2.5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H7" s="36">
         <f>D11/D7</f>
         <v>0.48</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D8" s="3">
         <v>360</v>
@@ -7290,19 +7385,19 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D10" s="3">
         <v>12</v>
@@ -7310,7 +7405,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D11" s="6">
         <f>D10*E8</f>
@@ -7325,7 +7420,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D13" s="45">
         <v>0.7</v>
@@ -7335,14 +7430,14 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" s="6">
         <f>H7*60*D13</f>
         <v>20.159999999999997</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G14" s="2"/>
       <c r="I14" s="7"/>
@@ -7363,7 +7458,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -7443,7 +7538,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -7454,7 +7549,7 @@
         <v>90</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -7465,7 +7560,7 @@
         <v>40</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
@@ -7476,7 +7571,7 @@
         <v>90</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
@@ -7488,14 +7583,14 @@
         <v>130</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F34" s="26">
         <f>D34/60</f>
         <v>2.1666666666666665</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
@@ -7507,14 +7602,14 @@
         <v>170</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F35" s="26">
         <f>D35/60</f>
         <v>2.8333333333333335</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
@@ -7542,13 +7637,13 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D40" s="3">
         <v>50</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
@@ -7559,7 +7654,7 @@
         <v>50</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
@@ -7571,14 +7666,14 @@
         <v>200</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F42" s="6">
         <f>D42/60</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
@@ -7616,19 +7711,19 @@
         <v>142</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F48" s="6">
         <f>D48/60</f>
         <v>2.3666666666666667</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="79" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="79" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C49" s="87"/>
       <c r="D49" s="107">
@@ -7952,7 +8047,7 @@
     <row r="72" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
       <c r="C72" s="80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D72" s="10">
         <v>600</v>
@@ -7989,21 +8084,24 @@
         <f>E73*60</f>
         <v>274200</v>
       </c>
-      <c r="G73" s="10"/>
+      <c r="G73" s="10">
+        <f>SUM(F63:F67)</f>
+        <v>16200</v>
+      </c>
       <c r="H73" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I73" s="6">
-        <f>F73*H7</f>
-        <v>131616</v>
+        <f>G73*H7</f>
+        <v>7776</v>
       </c>
       <c r="J73" s="53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B75" s="2" t="s">
-        <v>148</v>
+        <v>590</v>
       </c>
       <c r="C75" s="7">
         <f>2/3</f>
@@ -8296,7 +8394,7 @@
     <row r="86" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
       <c r="C86" s="80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D86" s="25">
         <f t="shared" si="4"/>
@@ -8356,10 +8454,14 @@
         <v>0.45559810357403352</v>
       </c>
       <c r="F89" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G89" s="1">
         <v>27780</v>
+      </c>
+      <c r="I89" s="7">
+        <f>C75/D89</f>
+        <v>1.4632779667800682</v>
       </c>
       <c r="M89" s="7" t="s">
         <v>134</v>
@@ -8368,14 +8470,14 @@
     <row r="90" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E90" s="17">
         <f>1/D89</f>
         <v>2.1949169501701022</v>
       </c>
       <c r="F90" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G90" s="6">
         <f>G89/(D102/30)</f>
@@ -8400,7 +8502,7 @@
         <v>90</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N91" s="7" t="s">
         <v>132</v>
@@ -8484,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -8562,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -8590,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -8618,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -8649,7 +8751,7 @@
     <row r="101" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B101" s="2"/>
       <c r="C101" s="80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D101" s="25">
         <f t="shared" si="7"/>
@@ -8714,23 +8816,27 @@
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G104" s="1">
         <v>42190</v>
+      </c>
+      <c r="I104" s="7">
+        <f>C75/D104</f>
+        <v>1.926153575975766</v>
       </c>
     </row>
     <row r="105" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B105" s="2"/>
       <c r="D105" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E105" s="17">
         <f>1/D104</f>
         <v>2.8892303639636494</v>
       </c>
       <c r="F105" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G105" s="6">
         <f>G104/(D117/30)</f>
@@ -8986,7 +9092,7 @@
     <row r="116" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B116" s="2"/>
       <c r="C116" s="80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D116" s="25">
         <f t="shared" si="11"/>
@@ -9058,7 +9164,7 @@
     <row r="124" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C124" s="2"/>
       <c r="D124" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>93</v>
@@ -9272,7 +9378,7 @@
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C134" s="80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D134" s="3">
         <v>1</v>
@@ -9280,17 +9386,17 @@
       <c r="E134" s="3"/>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D136" s="149" t="s">
+      <c r="D136" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="E136" s="149"/>
-      <c r="F136" s="149"/>
-      <c r="G136" s="149"/>
-      <c r="I136" s="149" t="s">
+      <c r="E136" s="150"/>
+      <c r="F136" s="150"/>
+      <c r="G136" s="150"/>
+      <c r="I136" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="J136" s="149"/>
-      <c r="K136" s="149"/>
+      <c r="J136" s="150"/>
+      <c r="K136" s="150"/>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C137" s="11" t="s">
@@ -9300,13 +9406,13 @@
         <v>100</v>
       </c>
       <c r="E137" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="F137" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="F137" s="11" t="s">
+      <c r="G137" s="11" t="s">
         <v>528</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>529</v>
       </c>
       <c r="H137" s="12" t="s">
         <v>101</v>
@@ -9519,7 +9625,7 @@
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B144" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>105</v>
@@ -9662,7 +9768,7 @@
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B151" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>78</v>
@@ -9771,21 +9877,21 @@
       <c r="G156" s="21"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C158" s="150" t="s">
+      <c r="C158" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="D158" s="150"/>
-      <c r="E158" s="150"/>
-      <c r="G158" s="151" t="s">
+      <c r="D158" s="151"/>
+      <c r="E158" s="151"/>
+      <c r="G158" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="H158" s="151"/>
-      <c r="I158" s="151"/>
+      <c r="H158" s="152"/>
+      <c r="I158" s="152"/>
       <c r="J158" s="23"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B159" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>105</v>
@@ -9794,7 +9900,7 @@
         <v>106</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G159" s="8" t="s">
         <v>105</v>
@@ -10009,7 +10115,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1" s="102"/>
       <c r="I1" s="87"/>
@@ -10089,7 +10195,7 @@
         <v>30750</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H8" s="87"/>
       <c r="I8" s="27"/>
@@ -10101,7 +10207,7 @@
         <v>48750</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H9" s="87"/>
       <c r="I9" s="27"/>
@@ -10113,7 +10219,7 @@
         <v>68250</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H10" s="87"/>
       <c r="I10" s="27"/>
@@ -10125,7 +10231,7 @@
         <v>90000</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="27"/>
@@ -10133,7 +10239,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="78" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B12" s="76"/>
       <c r="H12" s="102"/>
@@ -10218,7 +10324,7 @@
         <v>3075</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H19" s="87"/>
       <c r="I19" s="27"/>
@@ -10230,7 +10336,7 @@
         <v>4875</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H20" s="87"/>
       <c r="I20" s="27"/>
@@ -10241,7 +10347,7 @@
         <v>6825</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H21" s="87"/>
       <c r="I21" s="27"/>
@@ -10252,10 +10358,10 @@
         <v>9000</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E22" s="116" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F22" s="87">
         <v>2.35</v>
@@ -10266,58 +10372,58 @@
     <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A23" s="59"/>
       <c r="B23" s="59"/>
-      <c r="F23" s="150" t="s">
-        <v>373</v>
-      </c>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
+      <c r="F23" s="151" t="s">
+        <v>372</v>
+      </c>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="150"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
       <c r="M23" s="127"/>
       <c r="N23" s="127"/>
-      <c r="O23" s="150" t="s">
-        <v>566</v>
-      </c>
-      <c r="P23" s="150"/>
-      <c r="Q23" s="150"/>
-      <c r="R23" s="150"/>
-      <c r="T23" s="150" t="s">
+      <c r="O23" s="151" t="s">
+        <v>565</v>
+      </c>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="151"/>
+      <c r="R23" s="151"/>
+      <c r="T23" s="151" t="s">
+        <v>386</v>
+      </c>
+      <c r="U23" s="151"/>
+      <c r="V23" s="151"/>
+      <c r="W23" s="151"/>
+      <c r="Y23" s="151" t="s">
         <v>387</v>
       </c>
-      <c r="U23" s="150"/>
-      <c r="V23" s="150"/>
-      <c r="W23" s="150"/>
-      <c r="Y23" s="150" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z23" s="150"/>
-      <c r="AA23" s="150"/>
-      <c r="AB23" s="150"/>
+      <c r="Z23" s="151"/>
+      <c r="AA23" s="151"/>
+      <c r="AB23" s="151"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B24" s="64"/>
       <c r="C24" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="D24" s="112" t="s">
         <v>357</v>
       </c>
-      <c r="D24" s="112" t="s">
+      <c r="E24" s="115" t="s">
         <v>358</v>
       </c>
-      <c r="E24" s="115" t="s">
+      <c r="F24" s="65" t="s">
         <v>359</v>
       </c>
-      <c r="F24" s="65" t="s">
-        <v>360</v>
-      </c>
       <c r="G24" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="H24" s="55" t="s">
         <v>371</v>
-      </c>
-      <c r="H24" s="55" t="s">
-        <v>372</v>
       </c>
       <c r="I24" s="64"/>
       <c r="J24" s="65"/>
@@ -10326,45 +10432,45 @@
       <c r="M24" s="65"/>
       <c r="N24" s="65"/>
       <c r="O24" s="102" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P24" s="65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q24" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="R24" s="82" t="s">
         <v>371</v>
       </c>
-      <c r="R24" s="82" t="s">
-        <v>372</v>
-      </c>
       <c r="T24" s="102" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U24" s="65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V24" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="W24" s="82" t="s">
         <v>371</v>
       </c>
-      <c r="W24" s="82" t="s">
-        <v>372</v>
-      </c>
       <c r="Y24" s="102" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Z24" s="65" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA24" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB24" s="82" t="s">
         <v>371</v>
-      </c>
-      <c r="AB24" s="82" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="66" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B25" s="107"/>
       <c r="C25" s="67">
@@ -10400,7 +10506,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B26" s="107">
         <f>A13</f>
@@ -10479,7 +10585,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B27" s="108">
         <f>SUM(F26:F34)</f>
@@ -10559,7 +10665,7 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B28" s="107">
         <f>B26*10</f>
@@ -10639,7 +10745,7 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B29" s="107">
         <f>(D34-D26)/8</f>
@@ -10719,7 +10825,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B30" s="110">
         <f>B28/B27</f>
@@ -11178,7 +11284,7 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B36" s="110">
         <f>A14</f>
@@ -11258,7 +11364,7 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B37" s="108">
         <f>SUM(F35:F44)</f>
@@ -11338,7 +11444,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B38" s="110">
         <f>B36*10</f>
@@ -11418,7 +11524,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B39" s="107">
         <f>(D44-D35)/9</f>
@@ -11498,7 +11604,7 @@
     </row>
     <row r="40" spans="1:28" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B40" s="110">
         <f>B38/B37</f>
@@ -11875,7 +11981,7 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="66" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B45" s="107">
         <f>(B46+B36)/$F$22</f>
@@ -11955,7 +12061,7 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B46" s="107">
         <f>A15</f>
@@ -12035,7 +12141,7 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B47" s="108">
         <f>SUM(F45:F54)</f>
@@ -12115,7 +12221,7 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B48" s="110">
         <f>B46*10</f>
@@ -12195,7 +12301,7 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B49" s="107">
         <f>(D54-D45)/9</f>
@@ -12275,7 +12381,7 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B50" s="110">
         <f>B48/B47</f>
@@ -12654,7 +12760,7 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="66" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B55" s="107">
         <f>(B56+B46)/$F$22</f>
@@ -12734,7 +12840,7 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B56" s="107">
         <f>A16</f>
@@ -12814,7 +12920,7 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B57" s="108">
         <f>SUM(F55:F64)</f>
@@ -12894,7 +13000,7 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B58" s="110">
         <f>B56*10</f>
@@ -12974,7 +13080,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B59" s="107">
         <f>(D64-D55)/9</f>
@@ -13054,7 +13160,7 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B60" s="110">
         <f>B58/B57</f>
@@ -13433,7 +13539,7 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="66" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B65" s="107">
         <f>(B66+B56)/$F$22</f>
@@ -13513,7 +13619,7 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" s="69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B66" s="107">
         <f>A17</f>
@@ -13593,7 +13699,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" s="69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B67" s="108">
         <f>SUM(F65:F74)</f>
@@ -13673,7 +13779,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B68" s="110">
         <f>B66*10</f>
@@ -13753,7 +13859,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" s="69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B69" s="107">
         <f>(D74-D65)/9</f>
@@ -13833,7 +13939,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B70" s="110">
         <f>B68/B67</f>
@@ -14211,7 +14317,7 @@
     </row>
     <row r="75" spans="1:28" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A75" s="66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B75" s="107">
         <f>(B76+B66)/$F$22</f>
@@ -14291,7 +14397,7 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" s="69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B76" s="107">
         <f>A18</f>
@@ -14371,7 +14477,7 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" s="69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B77" s="108">
         <f>SUM(F75:F84)</f>
@@ -14451,7 +14557,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B78" s="110">
         <f>B76*10</f>
@@ -14531,7 +14637,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" s="69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B79" s="107">
         <f>(D84-D75)/9</f>
@@ -14611,7 +14717,7 @@
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B80" s="110">
         <f>B78/B77</f>
@@ -14990,7 +15096,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="74" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B85" s="107">
         <f>(B86+B76)/$F$22</f>
@@ -15070,7 +15176,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" s="69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B86" s="107">
         <f>A19</f>
@@ -15150,7 +15256,7 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" s="69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B87" s="108">
         <f>SUM(F85:F94)</f>
@@ -15230,7 +15336,7 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B88" s="110">
         <f>B86*10</f>
@@ -15310,7 +15416,7 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" s="69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B89" s="107">
         <f>(D94-D85)/9</f>
@@ -15390,7 +15496,7 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B90" s="110">
         <f>B88/B87</f>
@@ -15761,7 +15867,7 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="74" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B95" s="107">
         <f>(B96+B86)/$F$22</f>
@@ -15841,7 +15947,7 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" s="69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B96" s="107">
         <f>A20</f>
@@ -15921,7 +16027,7 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" s="69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B97" s="108">
         <f>SUM(F95:F104)</f>
@@ -16001,7 +16107,7 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B98" s="110">
         <f>B96*10</f>
@@ -16081,7 +16187,7 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" s="69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B99" s="107">
         <f>(D104-D95)/9</f>
@@ -16161,7 +16267,7 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B100" s="110">
         <f>B98/B97</f>
@@ -16532,7 +16638,7 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="74" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B105" s="107">
         <f>(B106+B96)/$F$22</f>
@@ -16612,7 +16718,7 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106" s="69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B106" s="107">
         <f>A21</f>
@@ -16692,7 +16798,7 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" s="69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B107" s="108">
         <f>SUM(F105:F114)</f>
@@ -16772,7 +16878,7 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B108" s="110">
         <f>B106*10</f>
@@ -16852,7 +16958,7 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" s="69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B109" s="107">
         <f>(D114-D105)/10</f>
@@ -16932,7 +17038,7 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B110" s="110">
         <f>B108/B107</f>
@@ -17303,7 +17409,7 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A115" s="74" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B115" s="107">
         <f>(B116+B106)/$F$22</f>
@@ -17382,7 +17488,7 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A116" s="69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B116" s="107">
         <f>A22</f>
@@ -17459,7 +17565,7 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A117" s="69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B117" s="108">
         <f>SUM(F115:F124)</f>
@@ -17536,7 +17642,7 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A118" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B118" s="110">
         <f>B116*10</f>
@@ -17613,7 +17719,7 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A119" s="69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B119" s="79">
         <f>(D124-D115)/10</f>
@@ -17690,7 +17796,7 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A120" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B120" s="110">
         <f>B118/B117</f>
@@ -18075,22 +18181,22 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="132" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B2" s="79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="C3" s="79" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="C4" s="79" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AB4" s="79">
         <f>24*60</f>
@@ -18107,7 +18213,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="C5" s="79" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AC5" s="79">
         <v>180</v>
@@ -18115,47 +18221,47 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="D6" s="79" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="E7" s="79" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="F8" s="79" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="E9" s="79" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="C11" s="79" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
       <c r="D12" s="79" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="F13" s="79" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="F14" s="79" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
       <c r="F15" s="79" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -18176,12 +18282,12 @@
     </row>
     <row r="17" spans="3:30" x14ac:dyDescent="0.15">
       <c r="C17" s="79" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="3:30" x14ac:dyDescent="0.15">
       <c r="E18" s="79" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AB18" s="79">
         <v>1800</v>
@@ -18196,205 +18302,205 @@
     </row>
     <row r="19" spans="3:30" x14ac:dyDescent="0.15">
       <c r="F19" s="79" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="3:30" x14ac:dyDescent="0.15">
       <c r="F20" s="79" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="3:30" x14ac:dyDescent="0.15">
       <c r="F21" s="79" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="3:30" x14ac:dyDescent="0.15">
       <c r="G22" s="79" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="3:30" x14ac:dyDescent="0.15">
       <c r="F23" s="79" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="3:30" x14ac:dyDescent="0.15">
       <c r="E24" s="79" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="3:30" x14ac:dyDescent="0.15">
       <c r="F25" s="79" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="3:30" x14ac:dyDescent="0.15">
       <c r="F26" s="79" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="3:30" x14ac:dyDescent="0.15">
       <c r="G27" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="3:30" x14ac:dyDescent="0.15">
       <c r="G28" s="79" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="3:30" x14ac:dyDescent="0.15">
       <c r="G29" s="79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="3:30" x14ac:dyDescent="0.15">
       <c r="C31" s="79" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="3:30" x14ac:dyDescent="0.15">
       <c r="D32" s="79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E33" s="79" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F34" s="79" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F35" s="79" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E36" s="79" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F37" s="79" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F38" s="79" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G39" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G40" s="79" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G41" s="79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C43" s="79" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D44" s="79" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F45" s="79" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F46" s="79" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G47" s="79" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F48" s="79" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E49" s="79" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F50" s="79" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F51" s="79" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G52" s="79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G53" s="79" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.15">
       <c r="G54" s="79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C55" s="79" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D56" s="79" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D57" s="79" t="s">
+        <v>427</v>
+      </c>
+      <c r="E57" s="79" t="s">
         <v>428</v>
-      </c>
-      <c r="E57" s="79" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F58" s="79" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E59" s="79" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F60" s="131" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -18421,43 +18527,43 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="128"/>
       <c r="B1" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C1" s="128" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="128"/>
       <c r="B2" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C2" s="128" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" s="129"/>
       <c r="C3" s="128" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="129"/>
       <c r="C4" s="128" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" s="129"/>
       <c r="D5" s="128" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="129"/>
       <c r="D6" s="128" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -18466,37 +18572,37 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="128"/>
       <c r="B8" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C8" s="128" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="128"/>
       <c r="B9" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C9" s="128" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="129"/>
       <c r="C10" s="128" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="129"/>
       <c r="C11" s="128" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="129"/>
       <c r="C12" s="128" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -18504,30 +18610,30 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C14" s="128" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C15" s="128" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="129"/>
       <c r="C16" s="128" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B17" s="129"/>
       <c r="C17" s="128" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
@@ -18536,31 +18642,31 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B19" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C19" s="128" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B20" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C20" s="131" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B21" s="129"/>
       <c r="C21" s="131" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="134"/>
       <c r="B22" s="134"/>
       <c r="C22" s="131" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -18568,18 +18674,18 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C24" s="128" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B25" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C25" s="128" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
@@ -18588,19 +18694,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B27" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C27" s="128" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="134"/>
       <c r="B28" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C28" s="131" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
@@ -18609,146 +18715,146 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B30" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C30" s="128" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="134"/>
       <c r="B31" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C31" s="131" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="134"/>
       <c r="B32" s="130"/>
       <c r="C32" s="132" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D32" s="132"/>
       <c r="E32" s="132" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F32" s="132"/>
       <c r="G32" s="132" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="134"/>
       <c r="B33" s="130"/>
       <c r="C33" s="131" t="s">
+        <v>486</v>
+      </c>
+      <c r="E33" s="131" t="s">
         <v>487</v>
-      </c>
-      <c r="E33" s="131" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="134"/>
       <c r="B34" s="130"/>
       <c r="C34" s="131" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E34" s="131" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="134"/>
       <c r="B35" s="130"/>
       <c r="C35" s="131" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E35" s="131" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G35" s="131" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="134"/>
       <c r="B36" s="130"/>
       <c r="C36" s="131" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E36" s="131" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G36" s="131" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="134"/>
       <c r="B37" s="130"/>
       <c r="C37" s="131" t="s">
+        <v>495</v>
+      </c>
+      <c r="E37" s="131" t="s">
         <v>496</v>
-      </c>
-      <c r="E37" s="131" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="134"/>
       <c r="B38" s="130"/>
       <c r="C38" s="131" t="s">
+        <v>502</v>
+      </c>
+      <c r="E38" s="131" t="s">
         <v>503</v>
       </c>
-      <c r="E38" s="131" t="s">
-        <v>504</v>
-      </c>
       <c r="G38" s="131" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="134"/>
       <c r="B39" s="130"/>
       <c r="C39" s="131" t="s">
+        <v>497</v>
+      </c>
+      <c r="E39" s="131" t="s">
         <v>498</v>
       </c>
-      <c r="E39" s="131" t="s">
-        <v>499</v>
-      </c>
       <c r="G39" s="131" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="134"/>
       <c r="B40" s="130"/>
       <c r="C40" s="131" t="s">
+        <v>499</v>
+      </c>
+      <c r="E40" s="131" t="s">
         <v>500</v>
-      </c>
-      <c r="E40" s="131" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="134"/>
       <c r="B41" s="130"/>
       <c r="C41" s="131" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E41" s="131" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="134"/>
       <c r="B42" s="130"/>
       <c r="C42" s="131" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E42" s="131" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="131" customFormat="1" x14ac:dyDescent="0.15">
@@ -18757,24 +18863,24 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B44" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C44" s="128" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B45" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C45" s="128" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B46" s="129"/>
       <c r="C46" s="128" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -18782,30 +18888,30 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B48" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C48" s="128" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B49" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C49" s="128" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B50" s="129"/>
       <c r="C50" s="128" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B51" s="129"/>
       <c r="C51" s="128" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="131" customFormat="1" x14ac:dyDescent="0.15">
@@ -18814,32 +18920,32 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B53" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C53" s="128" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B54" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C54" s="128" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="134"/>
       <c r="B55" s="130"/>
       <c r="C55" s="128" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="134"/>
       <c r="B56" s="130"/>
       <c r="C56" s="128" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="131" customFormat="1" x14ac:dyDescent="0.15">
@@ -18848,25 +18954,25 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B58" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C58" s="128" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B59" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C59" s="131" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="134"/>
       <c r="B60" s="134"/>
       <c r="C60" s="131" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="131" customFormat="1" x14ac:dyDescent="0.15">
@@ -18875,15 +18981,15 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B62" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C62" s="128" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B63" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H63" s="131"/>
     </row>
@@ -18893,19 +18999,19 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B65" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C65" s="128" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H65" s="131"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B66" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C66" s="131" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="131" customFormat="1" x14ac:dyDescent="0.15">
@@ -18914,18 +19020,18 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B68" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C68" s="128" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B69" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C69" s="131" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="131" customFormat="1" x14ac:dyDescent="0.15">
@@ -18934,24 +19040,24 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B71" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C71" s="128" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B72" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C72" s="131" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B73" s="129"/>
       <c r="C73" s="131" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="131" customFormat="1" x14ac:dyDescent="0.15">
@@ -18960,39 +19066,39 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B75" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C75" s="128" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B76" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C76" s="131" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B78" s="130" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C78" s="128" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B79" s="130" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C79" s="128" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C80" s="131" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -19005,8 +19111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R46" sqref="B46:R94"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -19029,16 +19135,16 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="132" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="E2" s="132" t="s">
+        <v>556</v>
+      </c>
+      <c r="F2" s="131" t="s">
         <v>557</v>
-      </c>
-      <c r="F2" s="131" t="s">
-        <v>558</v>
       </c>
       <c r="G2" s="103">
         <v>6</v>
@@ -19046,14 +19152,14 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="132" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C3" s="48">
         <f>ROUNDUP(副本时间模板!D7/副本时间模板!F48,0)</f>
         <v>64</v>
       </c>
       <c r="F3" s="131" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G3" s="103">
         <v>12</v>
@@ -19061,14 +19167,14 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="132" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C4" s="48">
         <f>ROUNDUP((副本时间模板!D8-副本时间模板!D7)/副本时间模板!F48,0)</f>
         <v>89</v>
       </c>
       <c r="F4" s="131" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G4" s="48">
         <f>G2</f>
@@ -19077,7 +19183,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="132" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C5" s="48">
         <f>C3*G4</f>
@@ -19087,7 +19193,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6" s="132" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C6" s="48">
         <f>(C3+C4)*G4</f>
@@ -19097,7 +19203,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="132" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C7" s="103">
         <v>300</v>
@@ -19105,7 +19211,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="132" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C8" s="103">
         <v>150</v>
@@ -19113,7 +19219,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="132" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C9" s="103">
         <v>150</v>
@@ -19125,66 +19231,81 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" s="131" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C13" s="132" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E13" s="132" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="F13" s="132" t="s">
-        <v>560</v>
+        <v>562</v>
+      </c>
+      <c r="G13" s="132" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="132" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C14" s="131">
         <v>1</v>
       </c>
-      <c r="E14" s="48">
-        <f>$C$7+$C$8+$C$9*C14+SUM($J$20:$J$30)-SUM($H$20:$H$30)</f>
-        <v>1362</v>
-      </c>
-      <c r="F14" s="137">
-        <f>E14/$E$14</f>
+      <c r="E14" s="131">
+        <f>C14*$C$9+$C$8+$C$7</f>
+        <v>600</v>
+      </c>
+      <c r="F14" s="48">
+        <f>$C$7+$C$8+$C$9*C14+SUM($E$20:$E$30)</f>
+        <v>1350</v>
+      </c>
+      <c r="G14" s="137">
+        <f>F14/$F$14</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="132" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C15" s="103">
         <v>5.5</v>
       </c>
-      <c r="E15" s="48">
-        <f>$C$7+$C$8+$C$9*C15+SUM($J$20:$J$30)-SUM($H$20:$H$30)</f>
-        <v>2037</v>
-      </c>
-      <c r="F15" s="137">
-        <f>E15/$E$14</f>
-        <v>1.4955947136563876</v>
+      <c r="E15" s="131">
+        <f t="shared" ref="E15:E16" si="0">C15*$C$9+$C$8+$C$7</f>
+        <v>1275</v>
+      </c>
+      <c r="F15" s="48">
+        <f t="shared" ref="F15:F16" si="1">$C$7+$C$8+$C$9*C15+SUM($E$20:$E$30)</f>
+        <v>2025</v>
+      </c>
+      <c r="G15" s="137">
+        <f>F15/$F$14</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="132" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C16" s="103">
         <v>10</v>
       </c>
-      <c r="E16" s="48">
-        <f>$C$7+$C$8+$C$9*C16+SUM($J$20:$J$30)-SUM($H$20:$H$30)</f>
-        <v>2712</v>
-      </c>
-      <c r="F16" s="137">
-        <f>E16/$E$14</f>
-        <v>1.9911894273127753</v>
+      <c r="E16" s="131">
+        <f t="shared" si="0"/>
+        <v>1950</v>
+      </c>
+      <c r="F16" s="48">
+        <f t="shared" si="1"/>
+        <v>2700</v>
+      </c>
+      <c r="G16" s="137">
+        <f>F16/$F$14</f>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.15">
@@ -19194,36 +19315,36 @@
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B19" s="132" t="s">
+        <v>533</v>
+      </c>
+      <c r="D19" s="132" t="s">
         <v>534</v>
       </c>
-      <c r="D19" s="132" t="s">
+      <c r="E19" s="132" t="s">
+        <v>576</v>
+      </c>
+      <c r="F19" s="132" t="s">
+        <v>583</v>
+      </c>
+      <c r="G19" s="132" t="s">
+        <v>541</v>
+      </c>
+      <c r="H19" s="132" t="s">
+        <v>542</v>
+      </c>
+      <c r="I19" s="132" t="s">
+        <v>564</v>
+      </c>
+      <c r="J19" s="132" t="s">
+        <v>543</v>
+      </c>
+      <c r="K19" s="132" t="s">
         <v>535</v>
-      </c>
-      <c r="E19" s="132" t="s">
-        <v>577</v>
-      </c>
-      <c r="F19" s="132" t="s">
-        <v>584</v>
-      </c>
-      <c r="G19" s="132" t="s">
-        <v>542</v>
-      </c>
-      <c r="H19" s="132" t="s">
-        <v>543</v>
-      </c>
-      <c r="I19" s="132" t="s">
-        <v>565</v>
-      </c>
-      <c r="J19" s="132" t="s">
-        <v>544</v>
-      </c>
-      <c r="K19" s="132" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C20" s="84" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D20" s="103">
         <v>9</v>
@@ -19245,7 +19366,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="48">
-        <f t="shared" ref="J20:J30" si="0">E20+G20*H20*I20</f>
+        <f t="shared" ref="J20:J30" si="2">E20+G20*H20*I20</f>
         <v>50</v>
       </c>
       <c r="K20" s="48">
@@ -19255,7 +19376,7 @@
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C21" s="84" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D21" s="103">
         <v>15</v>
@@ -19277,7 +19398,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K21" s="48">
@@ -19305,7 +19426,7 @@
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C22" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D22" s="103">
         <v>16</v>
@@ -19327,7 +19448,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K22" s="48">
@@ -19355,7 +19476,7 @@
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C23" s="84" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D23" s="103">
         <v>20</v>
@@ -19377,7 +19498,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K23" s="48">
@@ -19405,7 +19526,7 @@
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C24" s="84" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D24" s="103">
         <v>20</v>
@@ -19427,7 +19548,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="K24" s="48">
@@ -19455,7 +19576,7 @@
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C25" s="136" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D25" s="103">
         <v>20</v>
@@ -19477,7 +19598,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="K25" s="48">
@@ -19505,7 +19626,7 @@
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C26" s="84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D26" s="103">
         <v>25</v>
@@ -19527,7 +19648,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K26" s="48">
@@ -19555,7 +19676,7 @@
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C27" s="84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D27" s="103">
         <v>25</v>
@@ -19577,7 +19698,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="K27" s="48">
@@ -19588,7 +19709,7 @@
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C28" s="84" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D28" s="103">
         <v>30</v>
@@ -19610,7 +19731,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="K28" s="48">
@@ -19620,7 +19741,7 @@
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C29" s="84" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D29" s="103">
         <v>30</v>
@@ -19642,7 +19763,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="K29" s="48">
@@ -19670,7 +19791,7 @@
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C30" s="84" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D30" s="103">
         <v>34</v>
@@ -19692,7 +19813,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="K30" s="48">
@@ -19765,13 +19886,13 @@
     <row r="33" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C33" s="135"/>
       <c r="D33" s="132" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E33" s="132" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F33" s="132" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I33" s="87"/>
       <c r="J33" s="87"/>
@@ -19796,7 +19917,7 @@
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C34" s="136" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D34" s="48">
         <f>$C$7+$C$8+$C$9*C14</f>
@@ -19833,7 +19954,7 @@
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C35" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D35" s="48">
         <f>$C$7+$C$8+$C$9*C14-SUM(H20)+K20</f>
@@ -19907,7 +20028,7 @@
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C37" s="50" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D37" s="48">
         <f>$C$7+$C$8+$C$9*C14-SUM(H20:H22)+K22</f>
@@ -19944,7 +20065,7 @@
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C38" s="50" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D38" s="48">
         <f>$C$7+$C$8+$C$9*C14-SUM(H20:H25)+K25</f>
@@ -19979,7 +20100,7 @@
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C39" s="50" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D39" s="48">
         <f>$C$7+$C$8+$C$9*C14-SUM(H20:H27)+K27</f>
@@ -19996,7 +20117,7 @@
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C40" s="50" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D40" s="48">
         <f>$C$7+$C$8+$C$9*C14-SUM(H20:H29)+K29</f>
@@ -20013,7 +20134,7 @@
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.15">
       <c r="C41" s="50" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D41" s="48">
         <f>$C$7+$C$8+$C$9*C14-SUM(H20:H30)+K30</f>
@@ -20051,66 +20172,66 @@
       <c r="L44" s="141"/>
       <c r="M44" s="141"/>
       <c r="N44" s="147" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O44" s="147"/>
       <c r="P44" s="147"/>
       <c r="Q44" s="147" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="R44" s="147"/>
     </row>
     <row r="45" spans="2:29" ht="45" x14ac:dyDescent="0.15">
       <c r="B45" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="C45" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="D45" s="58" t="s">
+        <v>519</v>
+      </c>
+      <c r="E45" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="D45" s="58" t="s">
-        <v>520</v>
-      </c>
-      <c r="E45" s="60" t="s">
+      <c r="F45" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="F45" s="57" t="s">
-        <v>336</v>
-      </c>
       <c r="G45" s="57" t="s">
+        <v>586</v>
+      </c>
+      <c r="H45" s="56" t="s">
         <v>587</v>
       </c>
-      <c r="H45" s="56" t="s">
+      <c r="I45" s="56" t="s">
         <v>588</v>
       </c>
-      <c r="I45" s="56" t="s">
+      <c r="J45" s="56" t="s">
         <v>589</v>
       </c>
-      <c r="J45" s="56" t="s">
-        <v>590</v>
-      </c>
       <c r="K45" s="60" t="s">
+        <v>578</v>
+      </c>
+      <c r="L45" s="60" t="s">
         <v>579</v>
       </c>
-      <c r="L45" s="60" t="s">
-        <v>580</v>
-      </c>
       <c r="M45" s="56" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N45" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="O45" s="56" t="s">
         <v>288</v>
       </c>
-      <c r="O45" s="56" t="s">
-        <v>289</v>
-      </c>
       <c r="P45" s="56" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Q45" s="56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R45" s="61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.15">
@@ -20137,7 +20258,7 @@
         <f>F46</f>
         <v>3</v>
       </c>
-      <c r="H46" s="152">
+      <c r="H46" s="149">
         <v>1</v>
       </c>
       <c r="I46" s="146">
@@ -20149,11 +20270,11 @@
         <v>0</v>
       </c>
       <c r="K46" s="145">
-        <f>G46*$G$4</f>
+        <f t="shared" ref="K46:K77" si="3">G46*$G$4</f>
         <v>18</v>
       </c>
       <c r="L46" s="146">
-        <f t="shared" ref="L46:L60" si="1">ROUNDUP($F$21/($B$60-$B$46+1),0)</f>
+        <f t="shared" ref="L46:L60" si="4">ROUNDUP($F$21/($B$60-$B$46+1),0)</f>
         <v>7</v>
       </c>
       <c r="M46" s="145">
@@ -20161,7 +20282,7 @@
         <v>25</v>
       </c>
       <c r="N46" s="146">
-        <f t="shared" ref="N46:N53" si="2">M46/$D$34</f>
+        <f t="shared" ref="N46:N53" si="5">M46/$D$34</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O46" s="146">
@@ -20174,7 +20295,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="146">
-        <f>M46/$E$34</f>
+        <f t="shared" ref="R46:R53" si="6">M46/$E$34</f>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
@@ -20202,11 +20323,11 @@
         <f>F47-F46</f>
         <v>2</v>
       </c>
-      <c r="H47" s="152">
+      <c r="H47" s="149">
         <v>1</v>
       </c>
       <c r="I47" s="146">
-        <f t="shared" ref="I47:I94" si="3">1-H47</f>
+        <f t="shared" ref="I47:I94" si="7">1-H47</f>
         <v>0</v>
       </c>
       <c r="J47" s="146">
@@ -20214,19 +20335,19 @@
         <v>0</v>
       </c>
       <c r="K47" s="145">
-        <f>G47*$G$4</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="L47" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M47" s="145">
-        <f t="shared" ref="M47:M94" si="4">K47+L47</f>
+        <f t="shared" ref="M47:M94" si="8">K47+L47</f>
         <v>19</v>
       </c>
       <c r="N47" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.1666666666666669E-2</v>
       </c>
       <c r="O47" s="146">
@@ -20239,7 +20360,7 @@
         <v>1</v>
       </c>
       <c r="R47" s="146">
-        <f>M47/$E$34</f>
+        <f t="shared" si="6"/>
         <v>1.4901960784313726E-2</v>
       </c>
     </row>
@@ -20264,14 +20385,14 @@
         <v>7</v>
       </c>
       <c r="G48" s="146">
-        <f t="shared" ref="G48:G94" si="5">F48-F47</f>
+        <f t="shared" ref="G48:G94" si="9">F48-F47</f>
         <v>2</v>
       </c>
-      <c r="H48" s="152">
+      <c r="H48" s="149">
         <v>1</v>
       </c>
       <c r="I48" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J48" s="146">
@@ -20279,19 +20400,19 @@
         <v>0</v>
       </c>
       <c r="K48" s="145">
-        <f>G48*$G$4</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="L48" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M48" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="N48" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.1666666666666669E-2</v>
       </c>
       <c r="O48" s="146">
@@ -20304,7 +20425,7 @@
         <v>1</v>
       </c>
       <c r="R48" s="146">
-        <f>M48/$E$34</f>
+        <f t="shared" si="6"/>
         <v>1.4901960784313726E-2</v>
       </c>
     </row>
@@ -20329,14 +20450,14 @@
         <v>10</v>
       </c>
       <c r="G49" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="H49" s="152">
+      <c r="H49" s="149">
         <v>1</v>
       </c>
       <c r="I49" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J49" s="146">
@@ -20344,19 +20465,19 @@
         <v>0</v>
       </c>
       <c r="K49" s="145">
-        <f>G49*$G$4</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="L49" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M49" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="N49" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O49" s="146">
@@ -20369,7 +20490,7 @@
         <v>1</v>
       </c>
       <c r="R49" s="146">
-        <f>M49/$E$34</f>
+        <f t="shared" si="6"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
@@ -20394,14 +20515,14 @@
         <v>13</v>
       </c>
       <c r="G50" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="H50" s="152">
+      <c r="H50" s="149">
         <v>1</v>
       </c>
       <c r="I50" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J50" s="146">
@@ -20409,19 +20530,19 @@
         <v>0</v>
       </c>
       <c r="K50" s="145">
-        <f>G50*$G$4</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="L50" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M50" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="N50" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O50" s="146">
@@ -20434,7 +20555,7 @@
         <v>1</v>
       </c>
       <c r="R50" s="146">
-        <f>M50/$E$34</f>
+        <f t="shared" si="6"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
@@ -20459,14 +20580,14 @@
         <v>17</v>
       </c>
       <c r="G51" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="H51" s="152">
+      <c r="H51" s="149">
         <v>1</v>
       </c>
       <c r="I51" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J51" s="146">
@@ -20474,19 +20595,19 @@
         <v>0</v>
       </c>
       <c r="K51" s="145">
-        <f>G51*$G$4</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="L51" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M51" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="N51" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.1666666666666666E-2</v>
       </c>
       <c r="O51" s="146">
@@ -20499,7 +20620,7 @@
         <v>1</v>
       </c>
       <c r="R51" s="146">
-        <f>M51/$E$34</f>
+        <f t="shared" si="6"/>
         <v>2.4313725490196079E-2</v>
       </c>
     </row>
@@ -20524,14 +20645,14 @@
         <v>20</v>
       </c>
       <c r="G52" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="H52" s="152">
+      <c r="H52" s="149">
         <v>1</v>
       </c>
       <c r="I52" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J52" s="146">
@@ -20539,19 +20660,19 @@
         <v>0</v>
       </c>
       <c r="K52" s="145">
-        <f>G52*$G$4</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="L52" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M52" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="N52" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="O52" s="146">
@@ -20564,7 +20685,7 @@
         <v>1</v>
       </c>
       <c r="R52" s="146">
-        <f>M52/$E$34</f>
+        <f t="shared" si="6"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
@@ -20589,14 +20710,14 @@
         <v>24</v>
       </c>
       <c r="G53" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="H53" s="152">
+      <c r="H53" s="149">
         <v>1</v>
       </c>
       <c r="I53" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J53" s="146">
@@ -20604,19 +20725,19 @@
         <v>0</v>
       </c>
       <c r="K53" s="145">
-        <f>G53*$G$4</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="L53" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M53" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="N53" s="146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.1666666666666666E-2</v>
       </c>
       <c r="O53" s="146">
@@ -20629,7 +20750,7 @@
         <v>1</v>
       </c>
       <c r="R53" s="146">
-        <f>M53/$E$34</f>
+        <f t="shared" si="6"/>
         <v>2.4313725490196079E-2</v>
       </c>
     </row>
@@ -20654,14 +20775,14 @@
         <v>28</v>
       </c>
       <c r="G54" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="H54" s="152">
+      <c r="H54" s="149">
         <v>1</v>
       </c>
       <c r="I54" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J54" s="146">
@@ -20669,19 +20790,19 @@
         <v>0</v>
       </c>
       <c r="K54" s="145">
-        <f>G54*$G$4</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="L54" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M54" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="N54" s="146">
-        <f t="shared" ref="N54:N59" si="6">M54/$D$35</f>
+        <f t="shared" ref="N54:N59" si="10">M54/$D$35</f>
         <v>4.7692307692307694E-2</v>
       </c>
       <c r="O54" s="146">
@@ -20689,14 +20810,14 @@
         <v>1</v>
       </c>
       <c r="P54" s="56" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Q54" s="146">
         <f>ROUNDDOWN(SUM($R$46:R54),0)+1</f>
         <v>1</v>
       </c>
       <c r="R54" s="146">
-        <f>M54/$E$35</f>
+        <f t="shared" ref="R54:R59" si="11">M54/$E$35</f>
         <v>2.339622641509434E-2</v>
       </c>
     </row>
@@ -20721,14 +20842,14 @@
         <v>32</v>
       </c>
       <c r="G55" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="H55" s="152">
+      <c r="H55" s="149">
         <v>1</v>
       </c>
       <c r="I55" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J55" s="146">
@@ -20736,19 +20857,19 @@
         <v>0</v>
       </c>
       <c r="K55" s="145">
-        <f>G55*$G$4</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="L55" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M55" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="N55" s="146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4.7692307692307694E-2</v>
       </c>
       <c r="O55" s="146">
@@ -20761,7 +20882,7 @@
         <v>1</v>
       </c>
       <c r="R55" s="146">
-        <f>M55/$E$35</f>
+        <f t="shared" si="11"/>
         <v>2.339622641509434E-2</v>
       </c>
     </row>
@@ -20786,14 +20907,14 @@
         <v>37</v>
       </c>
       <c r="G56" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="H56" s="152">
+      <c r="H56" s="149">
         <v>1</v>
       </c>
       <c r="I56" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J56" s="146">
@@ -20801,19 +20922,19 @@
         <v>0</v>
       </c>
       <c r="K56" s="145">
-        <f>G56*$G$4</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="L56" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M56" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="N56" s="146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.6923076923076923E-2</v>
       </c>
       <c r="O56" s="146">
@@ -20826,7 +20947,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="146">
-        <f>M56/$E$35</f>
+        <f t="shared" si="11"/>
         <v>2.7924528301886794E-2</v>
       </c>
     </row>
@@ -20851,14 +20972,14 @@
         <v>41</v>
       </c>
       <c r="G57" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="H57" s="152">
+      <c r="H57" s="149">
         <v>1</v>
       </c>
       <c r="I57" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J57" s="146">
@@ -20866,19 +20987,19 @@
         <v>0</v>
       </c>
       <c r="K57" s="145">
-        <f>G57*$G$4</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="L57" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M57" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="N57" s="146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4.7692307692307694E-2</v>
       </c>
       <c r="O57" s="146">
@@ -20891,7 +21012,7 @@
         <v>1</v>
       </c>
       <c r="R57" s="146">
-        <f>M57/$E$35</f>
+        <f t="shared" si="11"/>
         <v>2.339622641509434E-2</v>
       </c>
     </row>
@@ -20916,14 +21037,14 @@
         <v>46</v>
       </c>
       <c r="G58" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="H58" s="152">
+      <c r="H58" s="149">
         <v>1</v>
       </c>
       <c r="I58" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J58" s="146">
@@ -20931,19 +21052,19 @@
         <v>0</v>
       </c>
       <c r="K58" s="145">
-        <f>G58*$G$4</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="L58" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M58" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="N58" s="146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.6923076923076923E-2</v>
       </c>
       <c r="O58" s="146">
@@ -20956,7 +21077,7 @@
         <v>1</v>
       </c>
       <c r="R58" s="146">
-        <f>M58/$E$35</f>
+        <f t="shared" si="11"/>
         <v>2.7924528301886794E-2</v>
       </c>
     </row>
@@ -20981,14 +21102,14 @@
         <v>52</v>
       </c>
       <c r="G59" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="H59" s="152">
+      <c r="H59" s="149">
         <v>1</v>
       </c>
       <c r="I59" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J59" s="146">
@@ -20996,19 +21117,19 @@
         <v>0</v>
       </c>
       <c r="K59" s="145">
-        <f>G59*$G$4</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="L59" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M59" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="N59" s="146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.615384615384616E-2</v>
       </c>
       <c r="O59" s="146">
@@ -21021,7 +21142,7 @@
         <v>1</v>
       </c>
       <c r="R59" s="146">
-        <f>M59/$E$35</f>
+        <f t="shared" si="11"/>
         <v>3.2452830188679248E-2</v>
       </c>
     </row>
@@ -21046,14 +21167,14 @@
         <v>58</v>
       </c>
       <c r="G60" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="H60" s="152">
+      <c r="H60" s="149">
         <v>1</v>
       </c>
       <c r="I60" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J60" s="146">
@@ -21061,15 +21182,15 @@
         <v>0</v>
       </c>
       <c r="K60" s="145">
-        <f>G60*$G$4</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="L60" s="146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M60" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="N60" s="146">
@@ -21081,7 +21202,7 @@
         <v>1</v>
       </c>
       <c r="P60" s="56" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q60" s="146">
         <f>ROUNDDOWN(SUM($R$46:R60),0)+1</f>
@@ -21113,14 +21234,14 @@
         <v>64</v>
       </c>
       <c r="G61" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="H61" s="152">
+      <c r="H61" s="149">
         <v>1</v>
       </c>
       <c r="I61" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J61" s="146">
@@ -21128,15 +21249,15 @@
         <v>0</v>
       </c>
       <c r="K61" s="145">
-        <f>G61*$G$4</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="L61" s="146">
-        <f t="shared" ref="L61:L68" si="7">$F$25/($B$68-$B$61+1)</f>
+        <f t="shared" ref="L61:L68" si="12">$F$25/($B$68-$B$61+1)</f>
         <v>43.75</v>
       </c>
       <c r="M61" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>79.75</v>
       </c>
       <c r="N61" s="146">
@@ -21148,7 +21269,7 @@
         <v>1</v>
       </c>
       <c r="P61" s="56" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q61" s="146">
         <f>ROUNDDOWN(SUM($R$46:R61),0)+1</f>
@@ -21180,14 +21301,14 @@
         <v>72</v>
       </c>
       <c r="G62" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="H62" s="152">
+      <c r="H62" s="149">
         <v>1</v>
       </c>
       <c r="I62" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J62" s="146">
@@ -21195,15 +21316,15 @@
         <v>0</v>
       </c>
       <c r="K62" s="145">
-        <f>G62*$G$4</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="L62" s="146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>43.75</v>
       </c>
       <c r="M62" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>91.75</v>
       </c>
       <c r="N62" s="146">
@@ -21245,14 +21366,14 @@
         <v>79</v>
       </c>
       <c r="G63" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="H63" s="152">
+      <c r="H63" s="149">
         <v>1</v>
       </c>
       <c r="I63" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J63" s="146">
@@ -21260,15 +21381,15 @@
         <v>0</v>
       </c>
       <c r="K63" s="145">
-        <f>G63*$G$4</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="L63" s="146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>43.75</v>
       </c>
       <c r="M63" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>85.75</v>
       </c>
       <c r="N63" s="146">
@@ -21310,14 +21431,14 @@
         <v>88</v>
       </c>
       <c r="G64" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="H64" s="152">
+      <c r="H64" s="149">
         <v>1</v>
       </c>
       <c r="I64" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J64" s="146">
@@ -21325,15 +21446,15 @@
         <v>0</v>
       </c>
       <c r="K64" s="145">
-        <f>G64*$G$4</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="L64" s="146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>43.75</v>
       </c>
       <c r="M64" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>97.75</v>
       </c>
       <c r="N64" s="146">
@@ -21375,14 +21496,14 @@
         <v>97</v>
       </c>
       <c r="G65" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="H65" s="152">
+      <c r="H65" s="149">
         <v>0.9</v>
       </c>
       <c r="I65" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J65" s="146">
@@ -21390,15 +21511,15 @@
         <v>6.9230769230769193E-2</v>
       </c>
       <c r="K65" s="145">
-        <f>G65*$G$4</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="L65" s="146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>43.75</v>
       </c>
       <c r="M65" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>97.75</v>
       </c>
       <c r="N65" s="146">
@@ -21410,7 +21531,7 @@
         <v>2</v>
       </c>
       <c r="P65" s="56" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q65" s="146">
         <f>ROUNDDOWN(SUM($R$46:R65),0)+1</f>
@@ -21442,14 +21563,14 @@
         <v>106</v>
       </c>
       <c r="G66" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="H66" s="152">
+      <c r="H66" s="149">
         <v>0.9</v>
       </c>
       <c r="I66" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J66" s="146">
@@ -21457,15 +21578,15 @@
         <v>6.9230769230769193E-2</v>
       </c>
       <c r="K66" s="145">
-        <f>G66*$G$4</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="L66" s="146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>43.75</v>
       </c>
       <c r="M66" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>97.75</v>
       </c>
       <c r="N66" s="146">
@@ -21477,7 +21598,7 @@
         <v>2</v>
       </c>
       <c r="P66" s="56" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q66" s="146">
         <f>ROUNDDOWN(SUM($R$46:R66),0)+1</f>
@@ -21509,14 +21630,14 @@
         <v>115</v>
       </c>
       <c r="G67" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="H67" s="152">
+      <c r="H67" s="149">
         <v>0.9</v>
       </c>
       <c r="I67" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J67" s="146">
@@ -21524,15 +21645,15 @@
         <v>6.9230769230769193E-2</v>
       </c>
       <c r="K67" s="145">
-        <f>G67*$G$4</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="L67" s="146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>43.75</v>
       </c>
       <c r="M67" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>97.75</v>
       </c>
       <c r="N67" s="146">
@@ -21544,7 +21665,7 @@
         <v>2</v>
       </c>
       <c r="P67" s="148" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Q67" s="146">
         <f>ROUNDDOWN(SUM($R$46:R67),0)+1</f>
@@ -21576,14 +21697,14 @@
         <v>126</v>
       </c>
       <c r="G68" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="H68" s="152">
+      <c r="H68" s="149">
         <v>0.9</v>
       </c>
       <c r="I68" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J68" s="146">
@@ -21591,15 +21712,15 @@
         <v>6.9230769230769193E-2</v>
       </c>
       <c r="K68" s="145">
-        <f>G68*$G$4</f>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="L68" s="146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>43.75</v>
       </c>
       <c r="M68" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>109.75</v>
       </c>
       <c r="N68" s="146">
@@ -21641,14 +21762,14 @@
         <v>137</v>
       </c>
       <c r="G69" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="H69" s="152">
+      <c r="H69" s="149">
         <v>0.9</v>
       </c>
       <c r="I69" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="J69" s="146">
@@ -21656,7 +21777,7 @@
         <v>6.9230769230769193E-2</v>
       </c>
       <c r="K69" s="145">
-        <f>G69*$G$4</f>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="L69" s="146">
@@ -21664,7 +21785,7 @@
         <v>125</v>
       </c>
       <c r="M69" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>191</v>
       </c>
       <c r="N69" s="146">
@@ -21706,14 +21827,14 @@
         <v>151</v>
       </c>
       <c r="G70" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="H70" s="152">
+      <c r="H70" s="149">
         <v>0.8</v>
       </c>
       <c r="I70" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J70" s="146">
@@ -21721,7 +21842,7 @@
         <v>0.13846153846153839</v>
       </c>
       <c r="K70" s="145">
-        <f>G70*$G$4</f>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="L70" s="146">
@@ -21729,7 +21850,7 @@
         <v>125</v>
       </c>
       <c r="M70" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>209</v>
       </c>
       <c r="N70" s="146">
@@ -21741,7 +21862,7 @@
         <v>3</v>
       </c>
       <c r="P70" s="56" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q70" s="146">
         <f>ROUNDDOWN(SUM($R$46:R70),0)+1</f>
@@ -21773,14 +21894,14 @@
         <v>167</v>
       </c>
       <c r="G71" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="H71" s="152">
+      <c r="H71" s="149">
         <v>0.8</v>
       </c>
       <c r="I71" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J71" s="146">
@@ -21788,7 +21909,7 @@
         <v>0.13846153846153839</v>
       </c>
       <c r="K71" s="145">
-        <f>G71*$G$4</f>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="L71" s="146">
@@ -21796,7 +21917,7 @@
         <v>125</v>
       </c>
       <c r="M71" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>221</v>
       </c>
       <c r="N71" s="146">
@@ -21808,7 +21929,7 @@
         <v>3</v>
       </c>
       <c r="P71" s="56" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q71" s="146">
         <f>ROUNDDOWN(SUM($R$46:R71),0)+1</f>
@@ -21840,14 +21961,14 @@
         <v>185</v>
       </c>
       <c r="G72" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="H72" s="152">
+      <c r="H72" s="149">
         <v>0.8</v>
       </c>
       <c r="I72" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J72" s="146">
@@ -21855,7 +21976,7 @@
         <v>0.13846153846153839</v>
       </c>
       <c r="K72" s="145">
-        <f>G72*$G$4</f>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="L72" s="146">
@@ -21863,7 +21984,7 @@
         <v>125</v>
       </c>
       <c r="M72" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>233</v>
       </c>
       <c r="N72" s="146">
@@ -21905,14 +22026,14 @@
         <v>207</v>
       </c>
       <c r="G73" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="H73" s="152">
+      <c r="H73" s="149">
         <v>0.8</v>
       </c>
       <c r="I73" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J73" s="146">
@@ -21920,7 +22041,7 @@
         <v>0.13846153846153839</v>
       </c>
       <c r="K73" s="145">
-        <f>G73*$G$4</f>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="L73" s="146">
@@ -21928,7 +22049,7 @@
         <v>250</v>
       </c>
       <c r="M73" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>382</v>
       </c>
       <c r="N73" s="146">
@@ -21970,14 +22091,14 @@
         <v>233</v>
       </c>
       <c r="G74" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="H74" s="152">
+      <c r="H74" s="149">
         <v>0.8</v>
       </c>
       <c r="I74" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J74" s="146">
@@ -21985,7 +22106,7 @@
         <v>0.13846153846153839</v>
       </c>
       <c r="K74" s="145">
-        <f>G74*$G$4</f>
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="L74" s="146">
@@ -21993,7 +22114,7 @@
         <v>250</v>
       </c>
       <c r="M74" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>406</v>
       </c>
       <c r="N74" s="146">
@@ -22035,14 +22156,14 @@
         <v>268</v>
       </c>
       <c r="G75" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="H75" s="152">
+      <c r="H75" s="149">
         <v>0.7</v>
       </c>
       <c r="I75" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J75" s="146">
@@ -22050,7 +22171,7 @@
         <v>0.20769230769230768</v>
       </c>
       <c r="K75" s="145">
-        <f>G75*$G$4</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="L75" s="146">
@@ -22058,7 +22179,7 @@
         <v>325</v>
       </c>
       <c r="M75" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>535</v>
       </c>
       <c r="N75" s="146">
@@ -22070,7 +22191,7 @@
         <v>4</v>
       </c>
       <c r="P75" s="56" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q75" s="146">
         <f>ROUNDDOWN(SUM($R$46:R75),0)+1</f>
@@ -22102,14 +22223,14 @@
         <v>307</v>
       </c>
       <c r="G76" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="H76" s="152">
+      <c r="H76" s="149">
         <v>0.7</v>
       </c>
       <c r="I76" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J76" s="146">
@@ -22117,7 +22238,7 @@
         <v>0.20769230769230765</v>
       </c>
       <c r="K76" s="145">
-        <f>G76*$G$4</f>
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="L76" s="146">
@@ -22125,7 +22246,7 @@
         <v>325</v>
       </c>
       <c r="M76" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>559</v>
       </c>
       <c r="N76" s="146">
@@ -22137,7 +22258,7 @@
         <v>4</v>
       </c>
       <c r="P76" s="56" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="Q76" s="146">
         <f>ROUNDDOWN(SUM($R$46:R76),0)+1</f>
@@ -22169,14 +22290,14 @@
         <v>351</v>
       </c>
       <c r="G77" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
-      <c r="H77" s="152">
+      <c r="H77" s="149">
         <v>0.7</v>
       </c>
       <c r="I77" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J77" s="146">
@@ -22184,7 +22305,7 @@
         <v>0.20769230769230768</v>
       </c>
       <c r="K77" s="145">
-        <f>G77*$G$4</f>
+        <f t="shared" si="3"/>
         <v>264</v>
       </c>
       <c r="L77" s="146">
@@ -22192,7 +22313,7 @@
         <v>650</v>
       </c>
       <c r="M77" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>914</v>
       </c>
       <c r="N77" s="146">
@@ -22234,14 +22355,14 @@
         <v>402</v>
       </c>
       <c r="G78" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
-      <c r="H78" s="152">
+      <c r="H78" s="149">
         <v>0.7</v>
       </c>
       <c r="I78" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J78" s="146">
@@ -22249,7 +22370,7 @@
         <v>0.2076923076923077</v>
       </c>
       <c r="K78" s="145">
-        <f>G78*$G$4</f>
+        <f t="shared" ref="K78:K94" si="13">G78*$G$4</f>
         <v>306</v>
       </c>
       <c r="L78" s="146">
@@ -22257,7 +22378,7 @@
         <v>650</v>
       </c>
       <c r="M78" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>956</v>
       </c>
       <c r="N78" s="146">
@@ -22299,14 +22420,14 @@
         <v>460</v>
       </c>
       <c r="G79" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
-      <c r="H79" s="152">
+      <c r="H79" s="149">
         <v>0.7</v>
       </c>
       <c r="I79" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J79" s="146">
@@ -22314,7 +22435,7 @@
         <v>0.2076923076923077</v>
       </c>
       <c r="K79" s="145">
-        <f>G79*$G$4</f>
+        <f t="shared" si="13"/>
         <v>348</v>
       </c>
       <c r="L79" s="146">
@@ -22322,11 +22443,11 @@
         <v>650</v>
       </c>
       <c r="M79" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>998</v>
       </c>
       <c r="N79" s="146">
-        <f t="shared" ref="N79:N94" si="8">M79/$D$41</f>
+        <f t="shared" ref="N79:N94" si="14">M79/$D$41</f>
         <v>0.73274596182085172</v>
       </c>
       <c r="O79" s="146">
@@ -22334,14 +22455,14 @@
         <v>7</v>
       </c>
       <c r="P79" s="56" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q79" s="146">
         <f>ROUNDDOWN(SUM($R$46:R79),0)+1</f>
         <v>4</v>
       </c>
       <c r="R79" s="146">
-        <f>M79/$E$41</f>
+        <f t="shared" ref="R79:R94" si="15">M79/$E$41</f>
         <v>0.48993618065783012</v>
       </c>
     </row>
@@ -22366,14 +22487,14 @@
         <v>526</v>
       </c>
       <c r="G80" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
-      <c r="H80" s="152">
+      <c r="H80" s="149">
         <v>0.7</v>
       </c>
       <c r="I80" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J80" s="146">
@@ -22381,19 +22502,19 @@
         <v>0.20769230769230768</v>
       </c>
       <c r="K80" s="145">
-        <f>G80*$G$4</f>
+        <f t="shared" si="13"/>
         <v>396</v>
       </c>
       <c r="L80" s="146">
-        <f>$F$30*(C80-C79)</f>
+        <f t="shared" ref="L80:L87" si="16">$F$30*(C80-C79)</f>
         <v>750</v>
       </c>
       <c r="M80" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1146</v>
       </c>
       <c r="N80" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.84140969162995594</v>
       </c>
       <c r="O80" s="146">
@@ -22406,7 +22527,7 @@
         <v>5</v>
       </c>
       <c r="R80" s="146">
-        <f>M80/$E$41</f>
+        <f t="shared" si="15"/>
         <v>0.5625920471281296</v>
       </c>
     </row>
@@ -22431,14 +22552,14 @@
         <v>604</v>
       </c>
       <c r="G81" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
-      <c r="H81" s="152">
+      <c r="H81" s="149">
         <v>0.7</v>
       </c>
       <c r="I81" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J81" s="146">
@@ -22446,19 +22567,19 @@
         <v>0.20769230769230765</v>
       </c>
       <c r="K81" s="145">
-        <f>G81*$G$4</f>
+        <f t="shared" si="13"/>
         <v>468</v>
       </c>
       <c r="L81" s="146">
-        <f>$F$30*(C81-C80)</f>
+        <f t="shared" si="16"/>
         <v>750</v>
       </c>
       <c r="M81" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1218</v>
       </c>
       <c r="N81" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.89427312775330392</v>
       </c>
       <c r="O81" s="146">
@@ -22471,7 +22592,7 @@
         <v>5</v>
       </c>
       <c r="R81" s="146">
-        <f>M81/$E$41</f>
+        <f t="shared" si="15"/>
         <v>0.59793814432989689</v>
       </c>
     </row>
@@ -22496,14 +22617,14 @@
         <v>696</v>
       </c>
       <c r="G82" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="H82" s="152">
+      <c r="H82" s="149">
         <v>0.7</v>
       </c>
       <c r="I82" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J82" s="146">
@@ -22511,19 +22632,19 @@
         <v>0.2076923076923077</v>
       </c>
       <c r="K82" s="145">
-        <f>G82*$G$4</f>
+        <f t="shared" si="13"/>
         <v>552</v>
       </c>
       <c r="L82" s="146">
-        <f>$F$30*(C82-C81)</f>
+        <f t="shared" si="16"/>
         <v>750</v>
       </c>
       <c r="M82" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1302</v>
       </c>
       <c r="N82" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.95594713656387664</v>
       </c>
       <c r="O82" s="146">
@@ -22536,7 +22657,7 @@
         <v>6</v>
       </c>
       <c r="R82" s="146">
-        <f>M82/$E$41</f>
+        <f t="shared" si="15"/>
         <v>0.63917525773195871</v>
       </c>
     </row>
@@ -22561,14 +22682,14 @@
         <v>806</v>
       </c>
       <c r="G83" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
-      <c r="H83" s="152">
+      <c r="H83" s="149">
         <v>0.7</v>
       </c>
       <c r="I83" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J83" s="146">
@@ -22576,19 +22697,19 @@
         <v>0.20769230769230768</v>
       </c>
       <c r="K83" s="145">
-        <f>G83*$G$4</f>
+        <f t="shared" si="13"/>
         <v>660</v>
       </c>
       <c r="L83" s="146">
-        <f>$F$30*(C83-C82)</f>
+        <f t="shared" si="16"/>
         <v>1500</v>
       </c>
       <c r="M83" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2160</v>
       </c>
       <c r="N83" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.5859030837004404</v>
       </c>
       <c r="O83" s="146">
@@ -22601,7 +22722,7 @@
         <v>7</v>
       </c>
       <c r="R83" s="146">
-        <f>M83/$E$41</f>
+        <f t="shared" si="15"/>
         <v>1.0603829160530192</v>
       </c>
     </row>
@@ -22626,14 +22747,14 @@
         <v>934</v>
       </c>
       <c r="G84" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>128</v>
       </c>
-      <c r="H84" s="152">
+      <c r="H84" s="149">
         <v>0.7</v>
       </c>
       <c r="I84" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J84" s="146">
@@ -22641,19 +22762,19 @@
         <v>0.20769230769230768</v>
       </c>
       <c r="K84" s="145">
-        <f>G84*$G$4</f>
+        <f t="shared" si="13"/>
         <v>768</v>
       </c>
       <c r="L84" s="146">
-        <f>$F$30*(C84-C83)</f>
+        <f t="shared" si="16"/>
         <v>1500</v>
       </c>
       <c r="M84" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2268</v>
       </c>
       <c r="N84" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.6651982378854626</v>
       </c>
       <c r="O84" s="146">
@@ -22666,7 +22787,7 @@
         <v>8</v>
       </c>
       <c r="R84" s="146">
-        <f>M84/$E$41</f>
+        <f t="shared" si="15"/>
         <v>1.1134020618556701</v>
       </c>
     </row>
@@ -22691,14 +22812,14 @@
         <v>1063</v>
       </c>
       <c r="G85" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>129</v>
       </c>
-      <c r="H85" s="152">
+      <c r="H85" s="149">
         <v>0.7</v>
       </c>
       <c r="I85" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J85" s="146">
@@ -22706,19 +22827,19 @@
         <v>0.20769230769230768</v>
       </c>
       <c r="K85" s="145">
-        <f>G85*$G$4</f>
+        <f t="shared" si="13"/>
         <v>774</v>
       </c>
       <c r="L85" s="146">
-        <f>$F$30*(C85-C84)</f>
+        <f t="shared" si="16"/>
         <v>1500</v>
       </c>
       <c r="M85" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2274</v>
       </c>
       <c r="N85" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.669603524229075</v>
       </c>
       <c r="O85" s="146">
@@ -22731,7 +22852,7 @@
         <v>9</v>
       </c>
       <c r="R85" s="146">
-        <f>M85/$E$41</f>
+        <f t="shared" si="15"/>
         <v>1.1163475699558174</v>
       </c>
     </row>
@@ -22756,14 +22877,14 @@
         <v>1196</v>
       </c>
       <c r="G86" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>133</v>
       </c>
-      <c r="H86" s="152">
+      <c r="H86" s="149">
         <v>0.7</v>
       </c>
       <c r="I86" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J86" s="146">
@@ -22771,19 +22892,19 @@
         <v>0.2076923076923077</v>
       </c>
       <c r="K86" s="145">
-        <f>G86*$G$4</f>
+        <f t="shared" si="13"/>
         <v>798</v>
       </c>
       <c r="L86" s="146">
-        <f>$F$30*(C86-C85)</f>
+        <f t="shared" si="16"/>
         <v>1500</v>
       </c>
       <c r="M86" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2298</v>
       </c>
       <c r="N86" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.6872246696035242</v>
       </c>
       <c r="O86" s="146">
@@ -22796,7 +22917,7 @@
         <v>11</v>
       </c>
       <c r="R86" s="146">
-        <f>M86/$E$41</f>
+        <f t="shared" si="15"/>
         <v>1.1281296023564065</v>
       </c>
     </row>
@@ -22821,14 +22942,14 @@
         <v>1338</v>
       </c>
       <c r="G87" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>142</v>
       </c>
-      <c r="H87" s="152">
+      <c r="H87" s="149">
         <v>0.7</v>
       </c>
       <c r="I87" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J87" s="146">
@@ -22836,19 +22957,19 @@
         <v>0.2076923076923077</v>
       </c>
       <c r="K87" s="145">
-        <f>G87*$G$4</f>
+        <f t="shared" si="13"/>
         <v>852</v>
       </c>
       <c r="L87" s="146">
-        <f>$F$30*(C87-C86)</f>
+        <f t="shared" si="16"/>
         <v>2250</v>
       </c>
       <c r="M87" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3102</v>
       </c>
       <c r="N87" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.2775330396475773</v>
       </c>
       <c r="O87" s="146">
@@ -22861,7 +22982,7 @@
         <v>12</v>
       </c>
       <c r="R87" s="146">
-        <f>M87/$E$41</f>
+        <f t="shared" si="15"/>
         <v>1.5228276877761413</v>
       </c>
     </row>
@@ -22886,14 +23007,14 @@
         <v>1489</v>
       </c>
       <c r="G88" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>151</v>
       </c>
-      <c r="H88" s="152">
+      <c r="H88" s="149">
         <v>0.7</v>
       </c>
       <c r="I88" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J88" s="146">
@@ -22901,18 +23022,18 @@
         <v>0.20769230769230768</v>
       </c>
       <c r="K88" s="145">
-        <f>G88*$G$4</f>
+        <f t="shared" si="13"/>
         <v>906</v>
       </c>
       <c r="L88" s="146">
         <v>2250</v>
       </c>
       <c r="M88" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3156</v>
       </c>
       <c r="N88" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.3171806167400879</v>
       </c>
       <c r="O88" s="146">
@@ -22925,7 +23046,7 @@
         <v>14</v>
       </c>
       <c r="R88" s="146">
-        <f>M88/$E$41</f>
+        <f t="shared" si="15"/>
         <v>1.5493372606774669</v>
       </c>
     </row>
@@ -22950,14 +23071,14 @@
         <v>1652</v>
       </c>
       <c r="G89" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>163</v>
       </c>
-      <c r="H89" s="152">
+      <c r="H89" s="149">
         <v>0.7</v>
       </c>
       <c r="I89" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J89" s="146">
@@ -22965,7 +23086,7 @@
         <v>0.2076923076923077</v>
       </c>
       <c r="K89" s="145">
-        <f>G89*$G$4</f>
+        <f t="shared" si="13"/>
         <v>978</v>
       </c>
       <c r="L89" s="146">
@@ -22973,11 +23094,11 @@
         <v>2250</v>
       </c>
       <c r="M89" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3228</v>
       </c>
       <c r="N89" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.3700440528634363</v>
       </c>
       <c r="O89" s="146">
@@ -22990,7 +23111,7 @@
         <v>15</v>
       </c>
       <c r="R89" s="146">
-        <f>M89/$E$41</f>
+        <f t="shared" si="15"/>
         <v>1.5846833578792341</v>
       </c>
     </row>
@@ -23015,14 +23136,14 @@
         <v>1830</v>
       </c>
       <c r="G90" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>178</v>
       </c>
-      <c r="H90" s="152">
+      <c r="H90" s="149">
         <v>0.7</v>
       </c>
       <c r="I90" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J90" s="146">
@@ -23030,18 +23151,18 @@
         <v>0.2076923076923077</v>
       </c>
       <c r="K90" s="145">
-        <f>G90*$G$4</f>
+        <f t="shared" si="13"/>
         <v>1068</v>
       </c>
       <c r="L90" s="146">
         <v>2250</v>
       </c>
       <c r="M90" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3318</v>
       </c>
       <c r="N90" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.4361233480176212</v>
       </c>
       <c r="O90" s="146">
@@ -23054,7 +23175,7 @@
         <v>17</v>
       </c>
       <c r="R90" s="146">
-        <f>M90/$E$41</f>
+        <f t="shared" si="15"/>
         <v>1.6288659793814433</v>
       </c>
     </row>
@@ -23079,14 +23200,14 @@
         <v>2023</v>
       </c>
       <c r="G91" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>193</v>
       </c>
-      <c r="H91" s="152">
+      <c r="H91" s="149">
         <v>0.7</v>
       </c>
       <c r="I91" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J91" s="146">
@@ -23094,7 +23215,7 @@
         <v>0.2076923076923077</v>
       </c>
       <c r="K91" s="145">
-        <f>G91*$G$4</f>
+        <f t="shared" si="13"/>
         <v>1158</v>
       </c>
       <c r="L91" s="146">
@@ -23102,11 +23223,11 @@
         <v>2250</v>
       </c>
       <c r="M91" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3408</v>
       </c>
       <c r="N91" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.5022026431718061</v>
       </c>
       <c r="O91" s="146">
@@ -23119,7 +23240,7 @@
         <v>18</v>
       </c>
       <c r="R91" s="146">
-        <f>M91/$E$41</f>
+        <f t="shared" si="15"/>
         <v>1.6730486008836525</v>
       </c>
     </row>
@@ -23144,14 +23265,14 @@
         <v>2247</v>
       </c>
       <c r="G92" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>224</v>
       </c>
-      <c r="H92" s="152">
+      <c r="H92" s="149">
         <v>0.7</v>
       </c>
       <c r="I92" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J92" s="146">
@@ -23159,7 +23280,7 @@
         <v>0.20769230769230768</v>
       </c>
       <c r="K92" s="145">
-        <f>G92*$G$4</f>
+        <f t="shared" si="13"/>
         <v>1344</v>
       </c>
       <c r="L92" s="146">
@@ -23167,11 +23288,11 @@
         <v>3000</v>
       </c>
       <c r="M92" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4344</v>
       </c>
       <c r="N92" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.1894273127753303</v>
       </c>
       <c r="O92" s="146">
@@ -23184,7 +23305,7 @@
         <v>21</v>
       </c>
       <c r="R92" s="146">
-        <f>M92/$E$41</f>
+        <f t="shared" si="15"/>
         <v>2.1325478645066274</v>
       </c>
     </row>
@@ -23209,14 +23330,14 @@
         <v>2498</v>
       </c>
       <c r="G93" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>251</v>
       </c>
-      <c r="H93" s="152">
+      <c r="H93" s="149">
         <v>0.7</v>
       </c>
       <c r="I93" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J93" s="146">
@@ -23224,7 +23345,7 @@
         <v>0.2076923076923077</v>
       </c>
       <c r="K93" s="145">
-        <f>G93*$G$4</f>
+        <f t="shared" si="13"/>
         <v>1506</v>
       </c>
       <c r="L93" s="146">
@@ -23232,11 +23353,11 @@
         <v>3000</v>
       </c>
       <c r="M93" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4506</v>
       </c>
       <c r="N93" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3.3083700440528636</v>
       </c>
       <c r="O93" s="146">
@@ -23249,7 +23370,7 @@
         <v>23</v>
       </c>
       <c r="R93" s="146">
-        <f>M93/$E$41</f>
+        <f t="shared" si="15"/>
         <v>2.212076583210604</v>
       </c>
     </row>
@@ -23274,14 +23395,14 @@
         <v>2808</v>
       </c>
       <c r="G94" s="146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>310</v>
       </c>
-      <c r="H94" s="152">
+      <c r="H94" s="149">
         <v>0.7</v>
       </c>
       <c r="I94" s="146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J94" s="146">
@@ -23289,7 +23410,7 @@
         <v>0.2076923076923077</v>
       </c>
       <c r="K94" s="145">
-        <f>G94*$G$4</f>
+        <f t="shared" si="13"/>
         <v>1860</v>
       </c>
       <c r="L94" s="146">
@@ -23297,11 +23418,11 @@
         <v>3750</v>
       </c>
       <c r="M94" s="145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5610</v>
       </c>
       <c r="N94" s="146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4.1189427312775333</v>
       </c>
       <c r="O94" s="146">
@@ -23314,7 +23435,7 @@
         <v>26</v>
       </c>
       <c r="R94" s="146">
-        <f>M94/$E$41</f>
+        <f t="shared" si="15"/>
         <v>2.7540500736377025</v>
       </c>
     </row>
@@ -23383,6 +23504,469 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.375" style="131" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="131" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="131" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="131"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="132" t="s">
+        <v>594</v>
+      </c>
+      <c r="B1" s="48">
+        <f>ROUNDUP(副本时间模板!D7/副本时间模板!F48,0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="132" t="s">
+        <v>595</v>
+      </c>
+      <c r="B2" s="103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="132" t="s">
+        <v>611</v>
+      </c>
+      <c r="B3" s="48">
+        <f>B1*B2</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="132"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="132"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="132"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="132" t="s">
+        <v>597</v>
+      </c>
+      <c r="B7" s="27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="B8" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="132" t="s">
+        <v>593</v>
+      </c>
+      <c r="B9" s="153">
+        <f>B7*B8</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="132"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="132" t="s">
+        <v>598</v>
+      </c>
+      <c r="B11" s="103">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="132" t="s">
+        <v>609</v>
+      </c>
+      <c r="B12" s="103">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="132"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="132" t="s">
+        <v>599</v>
+      </c>
+      <c r="B14" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="132" t="s">
+        <v>600</v>
+      </c>
+      <c r="B15" s="48">
+        <f>(B21-B9)/B11</f>
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="132" t="s">
+        <v>601</v>
+      </c>
+      <c r="B16" s="48">
+        <f>(B22-B9)/B11</f>
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="132" t="s">
+        <v>602</v>
+      </c>
+      <c r="B17" s="48">
+        <f>(B23-B9)/B11</f>
+        <v>5.2525000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="132"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="132"/>
+      <c r="B19" s="132" t="s">
+        <v>603</v>
+      </c>
+      <c r="C19" s="132" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="132" t="s">
+        <v>599</v>
+      </c>
+      <c r="B20" s="48">
+        <f>$B$9+$B$11*B14</f>
+        <v>900</v>
+      </c>
+      <c r="C20" s="137">
+        <f>B20/$B$20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="132" t="s">
+        <v>600</v>
+      </c>
+      <c r="B21" s="48">
+        <f>$B$20*C21</f>
+        <v>1350</v>
+      </c>
+      <c r="C21" s="137">
+        <f>1/副本时间模板!C75</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="132" t="s">
+        <v>601</v>
+      </c>
+      <c r="B22" s="48">
+        <f>ROUNDUP($B$20*C22,0)</f>
+        <v>1976</v>
+      </c>
+      <c r="C22" s="137">
+        <f>副本时间模板!E90</f>
+        <v>2.1949169501701022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="132" t="s">
+        <v>602</v>
+      </c>
+      <c r="B23" s="48">
+        <f>ROUNDUP($B$20*C23,0)</f>
+        <v>2601</v>
+      </c>
+      <c r="C23" s="137">
+        <f>副本时间模板!E105</f>
+        <v>2.8892303639636494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="132"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="132"/>
+      <c r="B25" s="132" t="s">
+        <v>605</v>
+      </c>
+      <c r="C25" s="132" t="s">
+        <v>606</v>
+      </c>
+      <c r="D25" s="132" t="s">
+        <v>607</v>
+      </c>
+      <c r="E25" s="132" t="s">
+        <v>608</v>
+      </c>
+      <c r="F25" s="132" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="132" t="s">
+        <v>599</v>
+      </c>
+      <c r="B26" s="48">
+        <f>$B$11</f>
+        <v>400</v>
+      </c>
+      <c r="C26" s="48">
+        <f>(B14-1)*$B$11</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="103">
+        <v>1</v>
+      </c>
+      <c r="E26" s="48">
+        <f t="shared" ref="E26:E29" si="0">ROUNDUP(C26*D26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="48">
+        <f>E26/$B$12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="132" t="s">
+        <v>600</v>
+      </c>
+      <c r="B27" s="48">
+        <f t="shared" ref="B27:B29" si="1">$B$11</f>
+        <v>400</v>
+      </c>
+      <c r="C27" s="48">
+        <f>(B15-1)*$B$11</f>
+        <v>450</v>
+      </c>
+      <c r="D27" s="103">
+        <v>1</v>
+      </c>
+      <c r="E27" s="48">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="F27" s="48">
+        <f t="shared" ref="F27:F29" si="2">E27/$B$12</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="132" t="s">
+        <v>601</v>
+      </c>
+      <c r="B28" s="48">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="C28" s="48">
+        <f t="shared" ref="C28:C29" si="3">(B16-1)*$B$11</f>
+        <v>1076</v>
+      </c>
+      <c r="D28" s="103">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E28" s="48">
+        <f>ROUNDUP(C28*D28,0)</f>
+        <v>1050</v>
+      </c>
+      <c r="F28" s="48">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="132" t="s">
+        <v>602</v>
+      </c>
+      <c r="B29" s="48">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="C29" s="48">
+        <f t="shared" si="3"/>
+        <v>1701.0000000000002</v>
+      </c>
+      <c r="D29" s="103">
+        <v>0.97</v>
+      </c>
+      <c r="E29" s="48">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+      <c r="F29" s="48">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="132" t="s">
+        <v>592</v>
+      </c>
+      <c r="C31" s="131" t="s">
+        <v>612</v>
+      </c>
+      <c r="D31" s="131" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="84" t="s">
+        <v>486</v>
+      </c>
+      <c r="C32" s="103">
+        <v>1</v>
+      </c>
+      <c r="D32" s="48">
+        <f>C32/SUM($C$32:$C$42)*$B$9</f>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="84" t="s">
+        <v>538</v>
+      </c>
+      <c r="C33" s="103">
+        <v>1</v>
+      </c>
+      <c r="D33" s="48">
+        <f t="shared" ref="D33:D42" si="4">C33/SUM($C$32:$C$42)*$B$9</f>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="84" t="s">
+        <v>539</v>
+      </c>
+      <c r="C34" s="103">
+        <v>1</v>
+      </c>
+      <c r="D34" s="48">
+        <f t="shared" si="4"/>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="84" t="s">
+        <v>537</v>
+      </c>
+      <c r="C35" s="103">
+        <v>2</v>
+      </c>
+      <c r="D35" s="48">
+        <f t="shared" si="4"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="84" t="s">
+        <v>544</v>
+      </c>
+      <c r="C36" s="103">
+        <v>1</v>
+      </c>
+      <c r="D36" s="48">
+        <f t="shared" si="4"/>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="136" t="s">
+        <v>545</v>
+      </c>
+      <c r="C37" s="103">
+        <v>1</v>
+      </c>
+      <c r="D37" s="48">
+        <f t="shared" si="4"/>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="84" t="s">
+        <v>546</v>
+      </c>
+      <c r="C38" s="103">
+        <v>2</v>
+      </c>
+      <c r="D38" s="48">
+        <f t="shared" si="4"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="84" t="s">
+        <v>547</v>
+      </c>
+      <c r="C39" s="103">
+        <v>1</v>
+      </c>
+      <c r="D39" s="48">
+        <f t="shared" si="4"/>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="84" t="s">
+        <v>548</v>
+      </c>
+      <c r="C40" s="103">
+        <v>2</v>
+      </c>
+      <c r="D40" s="48">
+        <f t="shared" si="4"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="84" t="s">
+        <v>549</v>
+      </c>
+      <c r="C41" s="103">
+        <v>2</v>
+      </c>
+      <c r="D41" s="48">
+        <f t="shared" si="4"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42" s="84" t="s">
+        <v>501</v>
+      </c>
+      <c r="C42" s="103">
+        <v>2</v>
+      </c>
+      <c r="D42" s="48">
+        <f t="shared" si="4"/>
+        <v>62.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH101"/>
   <sheetViews>
@@ -23409,88 +23993,88 @@
   <sheetData>
     <row r="1" spans="1:34" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="58" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="C1" s="58" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="E1" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="I1" s="61" t="s">
         <v>520</v>
       </c>
-      <c r="D1" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>337</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>338</v>
-      </c>
-      <c r="H1" s="61" t="s">
+      <c r="J1" s="61" t="s">
         <v>339</v>
       </c>
-      <c r="I1" s="61" t="s">
-        <v>521</v>
-      </c>
-      <c r="J1" s="61" t="s">
+      <c r="K1" s="61" t="s">
         <v>340</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="L1" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="M1" s="56" t="s">
         <v>342</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="N1" s="61" t="s">
         <v>343</v>
-      </c>
-      <c r="N1" s="61" t="s">
-        <v>344</v>
       </c>
       <c r="O1" s="61" t="s">
         <v>55</v>
       </c>
       <c r="P1" s="61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q1" s="61"/>
       <c r="R1" s="61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S1" s="61"/>
       <c r="T1" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="U1" s="61" t="s">
         <v>347</v>
-      </c>
-      <c r="U1" s="61" t="s">
-        <v>348</v>
       </c>
       <c r="V1" s="61"/>
       <c r="W1" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="X1" s="61" t="s">
         <v>349</v>
       </c>
-      <c r="X1" s="61" t="s">
+      <c r="Y1" s="61" t="s">
         <v>350</v>
       </c>
-      <c r="Y1" s="61" t="s">
+      <c r="Z1" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="Z1" s="61" t="s">
+      <c r="AA1" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB1" s="56" t="s">
         <v>352</v>
       </c>
-      <c r="AA1" s="61" t="s">
-        <v>351</v>
-      </c>
-      <c r="AB1" s="56" t="s">
+      <c r="AC1" s="56" t="s">
         <v>353</v>
       </c>
-      <c r="AC1" s="56" t="s">
+      <c r="AD1" s="56" t="s">
         <v>354</v>
-      </c>
-      <c r="AD1" s="56" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
@@ -23918,7 +24502,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="131" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N10" s="131">
         <v>2</v>
@@ -24257,7 +24841,7 @@
         <v>-2</v>
       </c>
       <c r="M16" s="88" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N16" s="131">
         <v>2</v>
@@ -24315,7 +24899,7 @@
         <v>-2</v>
       </c>
       <c r="M17" s="88" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N17" s="131">
         <f>ROUNDUP(F18/G18,0)</f>
@@ -24546,7 +25130,7 @@
         <v>9</v>
       </c>
       <c r="M21" s="88" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N21" s="131">
         <v>0</v>
@@ -24833,7 +25417,7 @@
         <v>11</v>
       </c>
       <c r="M26" s="88" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N26" s="131">
         <v>0</v>
@@ -25105,7 +25689,7 @@
         <v>15</v>
       </c>
       <c r="M31" s="88" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N31" s="131">
         <v>1</v>
@@ -25329,7 +25913,7 @@
         <v>32</v>
       </c>
       <c r="M35" s="88" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N35" s="131">
         <v>0</v>
@@ -26909,12 +27493,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y291"/>
   <sheetViews>
-    <sheetView topLeftCell="H28" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52:Y53"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52:Y66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -27102,7 +27686,7 @@
         <v>21</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>141</v>
@@ -27155,7 +27739,7 @@
         <v>29</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L17" s="1">
         <v>250</v>
@@ -27179,7 +27763,7 @@
         <v>32</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L18" s="1">
         <v>500</v>
@@ -27332,29 +27916,29 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C45" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I45" s="1">
         <v>535</v>
@@ -27362,43 +27946,43 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C46" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D46" s="1">
         <v>10000</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C47" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C50" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -27411,25 +27995,25 @@
         <v>120</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L50" s="1">
         <v>240</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N50" s="1">
         <v>180</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P50" s="1">
         <v>120</v>
@@ -27437,7 +28021,7 @@
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C51" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -27450,60 +28034,60 @@
         <v>200</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K51" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L51" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="N51" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="O51" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="P51" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="P51" s="35" t="s">
+      <c r="Q51" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="Q51" s="35" t="s">
+      <c r="R51" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="R51" s="2" t="s">
+      <c r="S51" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="S51" s="2" t="s">
+      <c r="T51" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="T51" s="2" t="s">
+      <c r="U51" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="U51" s="2" t="s">
+      <c r="V51" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="V51" s="2" t="s">
+      <c r="W51" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="W51" s="2" t="s">
+      <c r="X51" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="X51" s="2" t="s">
+      <c r="Y51" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="Y51" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C52" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D52" s="1">
         <v>7</v>
@@ -27569,7 +28153,7 @@
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C53" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D53" s="1">
         <v>10</v>
@@ -27582,7 +28166,7 @@
         <v>360</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I53" s="6">
         <f t="shared" ref="I53:Y53" si="1">($L$50+$N$50)*$J$50+$P$50*I52</f>
@@ -27655,7 +28239,7 @@
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C54" s="35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D54" s="1">
         <v>11</v>
@@ -27668,7 +28252,7 @@
         <v>510</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" ref="I54:Y54" si="2">SUM($E$50:$E$64)+I53</f>
@@ -27741,7 +28325,7 @@
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C55" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D55" s="1">
         <v>15</v>
@@ -27754,7 +28338,7 @@
         <v>610</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I55" s="17">
         <f t="shared" ref="I55:Y55" si="3">I54/$I$54</f>
@@ -27827,7 +28411,7 @@
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C56" s="132" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D56" s="1">
         <v>15</v>
@@ -27846,7 +28430,7 @@
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C57" s="132" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D57" s="1">
         <v>20</v>
@@ -27862,7 +28446,7 @@
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C58" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="1">
         <v>25</v>
@@ -27877,7 +28461,7 @@
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C59" s="35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D59" s="1">
         <v>30</v>
@@ -27890,7 +28474,7 @@
         <v>900</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I59" s="48">
         <f>$F52+I$53</f>
@@ -27963,7 +28547,7 @@
     </row>
     <row r="60" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C60" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="1">
         <v>32</v>
@@ -28049,7 +28633,7 @@
     </row>
     <row r="61" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C61" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D61" s="1">
         <v>32</v>
@@ -28062,7 +28646,7 @@
         <v>950</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I61" s="48">
         <f>$F54+I$53</f>
@@ -28135,7 +28719,7 @@
     </row>
     <row r="62" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C62" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D62" s="1">
         <v>42</v>
@@ -28148,7 +28732,7 @@
         <v>1010</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I62" s="48">
         <f t="shared" ref="I62:X62" si="7">$F56+I$53</f>
@@ -28221,7 +28805,7 @@
     </row>
     <row r="63" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C63" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="1">
         <v>55</v>
@@ -28234,7 +28818,7 @@
         <v>1060</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I63" s="48">
         <f>$F57+I$53</f>
@@ -28307,7 +28891,7 @@
     </row>
     <row r="64" spans="2:25" x14ac:dyDescent="0.15">
       <c r="C64" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="1">
         <v>60</v>
@@ -28320,7 +28904,7 @@
         <v>1110</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I64" s="48">
         <f>$F58+I$53</f>
@@ -28393,7 +28977,7 @@
     </row>
     <row r="65" spans="2:25" x14ac:dyDescent="0.15">
       <c r="H65" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I65" s="48">
         <f>$F59+I$53</f>
@@ -28478,31 +29062,31 @@
     </row>
     <row r="70" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B70" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="2:25" ht="30" x14ac:dyDescent="0.15">
       <c r="C71" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D71" s="32" t="s">
-        <v>207</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F71" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="I71" s="49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="2:25" ht="30" x14ac:dyDescent="0.15">
@@ -28525,7 +29109,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="133" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I72" s="48">
         <f>D72/$Q$59</f>
@@ -28536,7 +29120,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="133" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" spans="2:25" x14ac:dyDescent="0.15">
@@ -28559,7 +29143,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="132" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I73" s="48">
         <f t="shared" ref="I73:I80" si="11">D73/$Q$59</f>
@@ -28570,7 +29154,7 @@
         <v>1</v>
       </c>
       <c r="K73" s="132" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="2:25" x14ac:dyDescent="0.15">
@@ -28796,7 +29380,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I81" s="48">
         <f>$D$81/$Q$60</f>
@@ -28807,7 +29391,7 @@
         <v>1</v>
       </c>
       <c r="K81" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="3:11" x14ac:dyDescent="0.15">
@@ -28830,7 +29414,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I82" s="48">
         <f>D82/$Q$61</f>
@@ -28841,7 +29425,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="83" spans="3:11" x14ac:dyDescent="0.15">
@@ -28951,7 +29535,7 @@
         <v>2</v>
       </c>
       <c r="H86" s="133" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I86" s="48">
         <f>D86/$Q$62</f>
@@ -28962,7 +29546,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="133" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.15">
@@ -29101,7 +29685,7 @@
         <v>3</v>
       </c>
       <c r="H91" s="132" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I91" s="48">
         <f>D91/$Q$63</f>
@@ -29112,7 +29696,7 @@
         <v>1</v>
       </c>
       <c r="K91" s="132" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="92" spans="3:11" x14ac:dyDescent="0.15">
@@ -29251,7 +29835,7 @@
         <v>3</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I96" s="48">
         <f>D96/$Q$64</f>
@@ -29262,7 +29846,7 @@
         <v>2</v>
       </c>
       <c r="K96" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="3:11" x14ac:dyDescent="0.15">
@@ -29401,7 +29985,7 @@
         <v>4</v>
       </c>
       <c r="H101" s="35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I101" s="48">
         <f t="shared" ref="I101:I132" si="12">D101/$Q$65</f>
@@ -29412,7 +29996,7 @@
         <v>2</v>
       </c>
       <c r="K101" s="35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="102" spans="3:11" x14ac:dyDescent="0.15">
@@ -29464,7 +30048,7 @@
         <v>5</v>
       </c>
       <c r="H103" s="133" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I103" s="48">
         <f t="shared" si="12"/>
@@ -29475,7 +30059,7 @@
         <v>3</v>
       </c>
       <c r="K103" s="133" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="3:11" x14ac:dyDescent="0.15">
@@ -31104,7 +31688,7 @@
     </row>
     <row r="162" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C162" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D162" s="34">
         <v>317615</v>
@@ -31117,39 +31701,39 @@
     </row>
     <row r="164" spans="3:19" x14ac:dyDescent="0.15">
       <c r="G164" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="165" spans="3:19" ht="30" x14ac:dyDescent="0.15">
       <c r="C165" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D165" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="D165" s="32" t="s">
+      <c r="H165" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="H165" s="2" t="s">
+      <c r="J165" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="K165" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M165" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N165" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q165" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="L165" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="M165" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="N165" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q165" s="2" t="s">
+      <c r="R165" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="R165" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="166" spans="3:19" x14ac:dyDescent="0.15">
@@ -31164,7 +31748,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J166" s="1">
         <v>60</v>
@@ -31201,7 +31785,7 @@
         <v>1</v>
       </c>
       <c r="I167" s="51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J167" s="1">
         <v>75</v>
@@ -31238,7 +31822,7 @@
         <v>1</v>
       </c>
       <c r="I168" s="51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J168" s="1">
         <v>90</v>
@@ -31272,7 +31856,7 @@
         <v>1</v>
       </c>
       <c r="I169" s="51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J169" s="1">
         <v>100</v>
@@ -31306,7 +31890,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J170" s="1">
         <v>100</v>
@@ -31340,7 +31924,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J171" s="1">
         <v>100</v>
@@ -31391,19 +31975,19 @@
       </c>
       <c r="H173" s="48"/>
       <c r="J173" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L173" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M173" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="M173" s="2" t="s">
+      <c r="N173" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="N173" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="Q173" s="1">
         <v>8</v>
@@ -31425,7 +32009,7 @@
         <v>56</v>
       </c>
       <c r="I174" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J174" s="1">
         <f>95*5</f>
@@ -31465,7 +32049,7 @@
         <v>56</v>
       </c>
       <c r="I175" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J175" s="1">
         <f>98*5</f>
@@ -31505,7 +32089,7 @@
         <v>56</v>
       </c>
       <c r="I176" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J176" s="1">
         <f>101*5</f>
@@ -31545,7 +32129,7 @@
         <v>56</v>
       </c>
       <c r="I177" s="51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J177" s="1">
         <f>105*5</f>
@@ -31585,7 +32169,7 @@
         <v>56</v>
       </c>
       <c r="I178" s="51" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J178" s="1">
         <f>105*5</f>
@@ -31618,7 +32202,7 @@
         <v>56</v>
       </c>
       <c r="I179" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K179" s="1">
         <f t="shared" si="18"/>
@@ -31647,7 +32231,7 @@
         <v>56</v>
       </c>
       <c r="I180" s="51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K180" s="1">
         <f t="shared" si="18"/>
@@ -31676,7 +32260,7 @@
         <v>61</v>
       </c>
       <c r="I181" s="51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K181" s="1">
         <f t="shared" si="18"/>
@@ -31705,7 +32289,7 @@
         <v>61</v>
       </c>
       <c r="I182" s="51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K182" s="1">
         <f t="shared" si="18"/>
@@ -31734,7 +32318,7 @@
         <v>61</v>
       </c>
       <c r="I183" s="51" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K183" s="1">
         <f t="shared" si="18"/>
@@ -31763,7 +32347,7 @@
         <v>61</v>
       </c>
       <c r="I184" s="51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K184" s="1">
         <f t="shared" si="18"/>
@@ -31792,7 +32376,7 @@
         <v>61</v>
       </c>
       <c r="I185" s="51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K185" s="1">
         <f t="shared" si="18"/>
@@ -31821,7 +32405,7 @@
         <v>61</v>
       </c>
       <c r="I186" s="51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K186" s="1">
         <f t="shared" si="18"/>
@@ -31850,7 +32434,7 @@
         <v>61</v>
       </c>
       <c r="I187" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J187" s="1">
         <f>122*5</f>
@@ -31889,19 +32473,19 @@
       </c>
       <c r="H189" s="48"/>
       <c r="J189" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L189" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M189" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="M189" s="2" t="s">
+      <c r="N189" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="N189" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="190" spans="3:18" x14ac:dyDescent="0.15">
@@ -31916,7 +32500,7 @@
         <v>66</v>
       </c>
       <c r="I190" s="51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J190" s="1">
         <f>124*5</f>
@@ -31949,7 +32533,7 @@
         <v>66</v>
       </c>
       <c r="I191" s="51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J191" s="1">
         <f>127*5</f>
@@ -31982,7 +32566,7 @@
         <v>66</v>
       </c>
       <c r="I192" s="51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J192" s="1">
         <f>129*5</f>
@@ -32015,7 +32599,7 @@
         <v>66</v>
       </c>
       <c r="I193" s="51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J193" s="1">
         <f>131*5</f>
@@ -32048,7 +32632,7 @@
         <v>66</v>
       </c>
       <c r="I194" s="51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J194" s="1">
         <f>134*5</f>
@@ -32081,7 +32665,7 @@
         <v>66</v>
       </c>
       <c r="I195" s="51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J195" s="1">
         <f>137*5</f>
@@ -32114,7 +32698,7 @@
         <v>66</v>
       </c>
       <c r="I196" s="51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J196" s="1">
         <f>141*5</f>
@@ -32147,7 +32731,7 @@
         <v>71</v>
       </c>
       <c r="I197" s="51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J197" s="1">
         <f>144*5</f>
@@ -32180,7 +32764,7 @@
         <v>71</v>
       </c>
       <c r="I198" s="51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J198" s="1">
         <f>147*5</f>
@@ -32213,7 +32797,7 @@
         <v>71</v>
       </c>
       <c r="I199" s="51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J199" s="1">
         <f>149*5</f>
@@ -32246,7 +32830,7 @@
         <v>71</v>
       </c>
       <c r="I200" s="51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J200" s="1">
         <f>153*5</f>
@@ -32279,7 +32863,7 @@
         <v>71</v>
       </c>
       <c r="I201" s="51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J201" s="1">
         <f>157*5</f>
@@ -32312,7 +32896,7 @@
         <v>71</v>
       </c>
       <c r="I202" s="51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J202" s="1">
         <f>160*5</f>
@@ -32345,7 +32929,7 @@
         <v>71</v>
       </c>
       <c r="I203" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J203" s="1">
         <f>162*5</f>
@@ -32784,7 +33368,7 @@
     </row>
     <row r="256" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C256" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D256" s="34">
         <v>1205095</v>
@@ -32792,67 +33376,67 @@
     </row>
     <row r="261" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B261" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C261" s="38"/>
       <c r="H261" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P261" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="262" spans="2:24" x14ac:dyDescent="0.15">
       <c r="C262" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J262" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K262" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L262" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="K262" s="2" t="s">
+      <c r="M262" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N262" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q262" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="R262" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="L262" s="2" t="s">
+      <c r="S262" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="T262" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="U262" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="V262" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M262" s="2" t="s">
+      <c r="W262" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="X262" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="N262" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q262" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R262" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="S262" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="T262" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="U262" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="V262" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="W262" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="X262" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="263" spans="2:24" x14ac:dyDescent="0.15">
@@ -32872,7 +33456,7 @@
         <v>5000</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L263" s="1">
         <v>1500</v>
@@ -32888,24 +33472,24 @@
         <v>10000</v>
       </c>
       <c r="R263" s="44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S263" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T263" s="1">
         <f t="shared" ref="T263:T268" si="26">L263*2</f>
         <v>3000</v>
       </c>
       <c r="U263" s="44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V263" s="1">
         <f t="shared" ref="V263:V268" si="27">M263*2</f>
         <v>2</v>
       </c>
       <c r="W263" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X263" s="1">
         <f t="shared" ref="X263:X268" si="28">N263</f>
@@ -32945,7 +33529,7 @@
         <v>20000</v>
       </c>
       <c r="R264" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S264" s="1">
         <f>K264</f>
@@ -32956,14 +33540,14 @@
         <v>6000</v>
       </c>
       <c r="U264" s="44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V264" s="1">
         <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="W264" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="X264" s="1">
         <f t="shared" si="28"/>
@@ -33003,7 +33587,7 @@
         <v>30000</v>
       </c>
       <c r="R265" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S265" s="1">
         <f>K265</f>
@@ -33014,14 +33598,14 @@
         <v>9000</v>
       </c>
       <c r="U265" s="44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V265" s="1">
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="W265" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X265" s="1">
         <f t="shared" si="28"/>
@@ -33061,7 +33645,7 @@
         <v>40000</v>
       </c>
       <c r="R266" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S266" s="1">
         <f>K266</f>
@@ -33072,14 +33656,14 @@
         <v>12000</v>
       </c>
       <c r="U266" s="44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V266" s="1">
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="W266" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X266" s="1">
         <f t="shared" si="28"/>
@@ -33119,7 +33703,7 @@
         <v>80000</v>
       </c>
       <c r="R267" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S267" s="1">
         <f>K267</f>
@@ -33130,14 +33714,14 @@
         <v>15000</v>
       </c>
       <c r="U267" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V267" s="1">
         <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="W267" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X267" s="1">
         <f t="shared" si="28"/>
@@ -33177,7 +33761,7 @@
         <v>100000</v>
       </c>
       <c r="R268" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S268" s="1">
         <f>K268</f>
@@ -33188,14 +33772,14 @@
         <v>15000</v>
       </c>
       <c r="U268" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="V268" s="1">
         <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="W268" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X268" s="1">
         <f t="shared" si="28"/>
@@ -33223,7 +33807,7 @@
         <v>100000</v>
       </c>
       <c r="R269" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="270" spans="2:24" x14ac:dyDescent="0.15">
@@ -33276,7 +33860,7 @@
     </row>
     <row r="273" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C273" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D273" s="1">
         <v>250</v>
@@ -33290,7 +33874,7 @@
     </row>
     <row r="274" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C274" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D274" s="1">
         <v>200</v>
@@ -33305,7 +33889,7 @@
     </row>
     <row r="275" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C275" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D275" s="1">
         <v>150</v>
@@ -33319,7 +33903,7 @@
     </row>
     <row r="276" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C276" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D276" s="1">
         <v>130</v>
@@ -33333,7 +33917,7 @@
     </row>
     <row r="277" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C277" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D277" s="1">
         <v>110</v>
@@ -33347,7 +33931,7 @@
     </row>
     <row r="278" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C278" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D278" s="1">
         <v>100</v>
@@ -33361,7 +33945,7 @@
     </row>
     <row r="279" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C279" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D279" s="1">
         <v>90</v>
@@ -33375,7 +33959,7 @@
     </row>
     <row r="280" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C280" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D280" s="1">
         <v>80</v>
@@ -33389,7 +33973,7 @@
     </row>
     <row r="281" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C281" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D281" s="1">
         <v>70</v>
@@ -33403,7 +33987,7 @@
     </row>
     <row r="282" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C282" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D282" s="1">
         <v>60</v>
@@ -33417,7 +34001,7 @@
     </row>
     <row r="283" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C283" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D283" s="1">
         <v>55</v>
@@ -33431,7 +34015,7 @@
     </row>
     <row r="284" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C284" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D284" s="1">
         <v>55</v>
@@ -33445,7 +34029,7 @@
     </row>
     <row r="285" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C285" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D285" s="1">
         <v>55</v>
@@ -33459,7 +34043,7 @@
     </row>
     <row r="286" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C286" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D286" s="1">
         <v>50</v>
@@ -33473,7 +34057,7 @@
     </row>
     <row r="287" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C287" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D287" s="1">
         <v>50</v>
@@ -33487,7 +34071,7 @@
     </row>
     <row r="288" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C288" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D288" s="1">
         <v>50</v>
@@ -33501,7 +34085,7 @@
     </row>
     <row r="289" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C289" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D289" s="1">
         <v>45</v>
@@ -33515,7 +34099,7 @@
     </row>
     <row r="290" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C290" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D290" s="1">
         <v>45</v>
@@ -33529,7 +34113,7 @@
     </row>
     <row r="291" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C291" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D291" s="1">
         <v>45</v>
